--- a/Clase_10/Base_Transporte_ARIMA.xlsx
+++ b/Clase_10/Base_Transporte_ARIMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AD9A1-CC03-4848-B85F-DC7A9FECE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE4C93-874A-264A-8D6B-756E98F17DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39160" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -456,9 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:V295"/>
+  <dimension ref="A1:V331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -535,16 +537,16 @@
         <v>36526</v>
       </c>
       <c r="B2">
-        <v>1378244</v>
+        <v>1467815</v>
       </c>
       <c r="C2">
-        <v>672734</v>
+        <v>658976</v>
       </c>
       <c r="D2">
-        <v>30290</v>
+        <v>30364</v>
       </c>
       <c r="E2">
-        <v>7812</v>
+        <v>7787</v>
       </c>
       <c r="F2">
         <v>112.3006</v>
@@ -603,16 +605,16 @@
         <v>36557</v>
       </c>
       <c r="B3">
-        <v>1318075</v>
+        <v>1405033</v>
       </c>
       <c r="C3">
-        <v>649382</v>
+        <v>623299</v>
       </c>
       <c r="D3">
-        <v>28291</v>
+        <v>28187</v>
       </c>
       <c r="E3">
-        <v>7440</v>
+        <v>7514</v>
       </c>
       <c r="F3">
         <v>112.20099999999999</v>
@@ -671,16 +673,16 @@
         <v>36586</v>
       </c>
       <c r="B4">
-        <v>1476646</v>
+        <v>1608661</v>
       </c>
       <c r="C4">
-        <v>750587</v>
+        <v>710442</v>
       </c>
       <c r="D4">
-        <v>31031</v>
+        <v>30777</v>
       </c>
       <c r="E4">
-        <v>8036</v>
+        <v>8096</v>
       </c>
       <c r="F4">
         <v>121.1015</v>
@@ -739,16 +741,16 @@
         <v>36617</v>
       </c>
       <c r="B5">
-        <v>1426550</v>
+        <v>1523253</v>
       </c>
       <c r="C5">
-        <v>718826</v>
+        <v>677347</v>
       </c>
       <c r="D5">
-        <v>29896</v>
+        <v>29894</v>
       </c>
       <c r="E5">
-        <v>7886</v>
+        <v>7914</v>
       </c>
       <c r="F5">
         <v>106.101</v>
@@ -807,16 +809,16 @@
         <v>36647</v>
       </c>
       <c r="B6">
-        <v>1529293</v>
+        <v>1613390</v>
       </c>
       <c r="C6">
-        <v>663015</v>
+        <v>649651</v>
       </c>
       <c r="D6">
-        <v>31382</v>
+        <v>31368</v>
       </c>
       <c r="E6">
-        <v>7498</v>
+        <v>7534</v>
       </c>
       <c r="F6">
         <v>118.2991</v>
@@ -875,16 +877,16 @@
         <v>36678</v>
       </c>
       <c r="B7">
-        <v>1427266</v>
+        <v>1536857</v>
       </c>
       <c r="C7">
-        <v>633091</v>
+        <v>677685</v>
       </c>
       <c r="D7">
         <v>30514</v>
       </c>
       <c r="E7">
-        <v>7351</v>
+        <v>7408</v>
       </c>
       <c r="F7">
         <v>117.999</v>
@@ -943,16 +945,16 @@
         <v>36708</v>
       </c>
       <c r="B8">
-        <v>1664868</v>
+        <v>1773828</v>
       </c>
       <c r="C8">
-        <v>825149</v>
+        <v>762998</v>
       </c>
       <c r="D8">
-        <v>32367</v>
+        <v>32253</v>
       </c>
       <c r="E8">
-        <v>7690</v>
+        <v>7793</v>
       </c>
       <c r="F8">
         <v>114.7992</v>
@@ -1011,16 +1013,16 @@
         <v>36739</v>
       </c>
       <c r="B9">
-        <v>1621475</v>
+        <v>1744202</v>
       </c>
       <c r="C9">
-        <v>776788</v>
+        <v>751462</v>
       </c>
       <c r="D9">
-        <v>33004</v>
+        <v>32864</v>
       </c>
       <c r="E9">
-        <v>7861</v>
+        <v>7889</v>
       </c>
       <c r="F9">
         <v>121.79900000000001</v>
@@ -1079,16 +1081,16 @@
         <v>36770</v>
       </c>
       <c r="B10">
-        <v>1337000</v>
+        <v>1431271</v>
       </c>
       <c r="C10">
-        <v>597435</v>
+        <v>574648</v>
       </c>
       <c r="D10">
-        <v>30517</v>
+        <v>30459</v>
       </c>
       <c r="E10">
-        <v>7519</v>
+        <v>7585</v>
       </c>
       <c r="F10">
         <v>116.901</v>
@@ -1147,16 +1149,16 @@
         <v>36800</v>
       </c>
       <c r="B11">
-        <v>1433870</v>
+        <v>1529001</v>
       </c>
       <c r="C11">
-        <v>604420</v>
+        <v>658344</v>
       </c>
       <c r="D11">
-        <v>31999</v>
+        <v>31929</v>
       </c>
       <c r="E11">
-        <v>7874</v>
+        <v>7961</v>
       </c>
       <c r="F11">
         <v>122.0005</v>
@@ -1215,16 +1217,16 @@
         <v>36831</v>
       </c>
       <c r="B12">
-        <v>1478113</v>
+        <v>1588180</v>
       </c>
       <c r="C12">
-        <v>679783</v>
+        <v>731928</v>
       </c>
       <c r="D12">
-        <v>31658</v>
+        <v>31609</v>
       </c>
       <c r="E12">
-        <v>8058</v>
+        <v>8109</v>
       </c>
       <c r="F12">
         <v>114.801</v>
@@ -1283,16 +1285,16 @@
         <v>36861</v>
       </c>
       <c r="B13">
-        <v>1508385</v>
+        <v>1618021</v>
       </c>
       <c r="C13">
-        <v>688571</v>
+        <v>808416</v>
       </c>
       <c r="D13">
-        <v>32656</v>
+        <v>32698</v>
       </c>
       <c r="E13">
-        <v>8485</v>
+        <v>8402</v>
       </c>
       <c r="F13">
         <v>114.3993</v>
@@ -1351,16 +1353,16 @@
         <v>36892</v>
       </c>
       <c r="B14">
-        <v>1437232</v>
+        <v>1528593</v>
       </c>
       <c r="C14">
-        <v>846203</v>
+        <v>757007</v>
       </c>
       <c r="D14">
-        <v>33418</v>
+        <v>33437</v>
       </c>
       <c r="E14">
-        <v>8585</v>
+        <v>8557</v>
       </c>
       <c r="F14">
         <v>117.89919999999999</v>
@@ -1419,16 +1421,16 @@
         <v>36923</v>
       </c>
       <c r="B15">
-        <v>1383251</v>
+        <v>1446422</v>
       </c>
       <c r="C15">
-        <v>745608</v>
+        <v>686779</v>
       </c>
       <c r="D15">
-        <v>29942</v>
+        <v>30006</v>
       </c>
       <c r="E15">
-        <v>8035</v>
+        <v>7947</v>
       </c>
       <c r="F15">
         <v>110.0988</v>
@@ -1487,16 +1489,16 @@
         <v>36951</v>
       </c>
       <c r="B16">
-        <v>1573884</v>
+        <v>1647364</v>
       </c>
       <c r="C16">
-        <v>886425</v>
+        <v>796212</v>
       </c>
       <c r="D16">
-        <v>32866</v>
+        <v>33022</v>
       </c>
       <c r="E16">
-        <v>8816</v>
+        <v>8819</v>
       </c>
       <c r="F16">
         <v>122.80029999999999</v>
@@ -1555,16 +1557,16 @@
         <v>36982</v>
       </c>
       <c r="B17">
-        <v>1544627</v>
+        <v>1605110</v>
       </c>
       <c r="C17">
-        <v>849902</v>
+        <v>738079</v>
       </c>
       <c r="D17">
-        <v>31562</v>
+        <v>31626</v>
       </c>
       <c r="E17">
-        <v>8360</v>
+        <v>8383</v>
       </c>
       <c r="F17">
         <v>108.798</v>
@@ -1623,16 +1625,16 @@
         <v>37012</v>
       </c>
       <c r="B18">
-        <v>1539992</v>
+        <v>1596800</v>
       </c>
       <c r="C18">
-        <v>738184</v>
+        <v>674966</v>
       </c>
       <c r="D18">
-        <v>32869</v>
+        <v>33217</v>
       </c>
       <c r="E18">
-        <v>8020</v>
+        <v>8061</v>
       </c>
       <c r="F18">
         <v>122.0005</v>
@@ -1691,16 +1693,16 @@
         <v>37043</v>
       </c>
       <c r="B19">
-        <v>1487720</v>
+        <v>1518995</v>
       </c>
       <c r="C19">
-        <v>722148</v>
+        <v>695935</v>
       </c>
       <c r="D19">
-        <v>31767</v>
+        <v>31919</v>
       </c>
       <c r="E19">
-        <v>7726</v>
+        <v>7713</v>
       </c>
       <c r="F19">
         <v>119.4</v>
@@ -1759,16 +1761,16 @@
         <v>37073</v>
       </c>
       <c r="B20">
-        <v>1810701</v>
+        <v>1869586</v>
       </c>
       <c r="C20">
-        <v>887986</v>
+        <v>782888</v>
       </c>
       <c r="D20">
-        <v>33725</v>
+        <v>33799</v>
       </c>
       <c r="E20">
-        <v>8050</v>
+        <v>8068</v>
       </c>
       <c r="F20">
         <v>119.79949999999999</v>
@@ -1827,16 +1829,16 @@
         <v>37104</v>
       </c>
       <c r="B21">
-        <v>1751991</v>
+        <v>1802742</v>
       </c>
       <c r="C21">
-        <v>840159</v>
+        <v>773630</v>
       </c>
       <c r="D21">
-        <v>33455</v>
+        <v>33584</v>
       </c>
       <c r="E21">
-        <v>8088</v>
+        <v>8067</v>
       </c>
       <c r="F21">
         <v>125.9995</v>
@@ -1895,16 +1897,16 @@
         <v>37135</v>
       </c>
       <c r="B22">
-        <v>1303345</v>
+        <v>1340281</v>
       </c>
       <c r="C22">
-        <v>470638</v>
+        <v>417630</v>
       </c>
       <c r="D22">
-        <v>29906</v>
+        <v>29966</v>
       </c>
       <c r="E22">
-        <v>5866</v>
+        <v>5954</v>
       </c>
       <c r="F22">
         <v>118.70099999999999</v>
@@ -1963,16 +1965,16 @@
         <v>37165</v>
       </c>
       <c r="B23">
-        <v>1331477</v>
+        <v>1370321</v>
       </c>
       <c r="C23">
-        <v>483733</v>
+        <v>504767</v>
       </c>
       <c r="D23">
-        <v>29857</v>
+        <v>30002</v>
       </c>
       <c r="E23">
-        <v>6636</v>
+        <v>6776</v>
       </c>
       <c r="F23">
         <v>128.2997</v>
@@ -2031,16 +2033,16 @@
         <v>37196</v>
       </c>
       <c r="B24">
-        <v>1342789</v>
+        <v>1394450</v>
       </c>
       <c r="C24">
-        <v>581732</v>
+        <v>584558</v>
       </c>
       <c r="D24">
-        <v>28731</v>
+        <v>28852</v>
       </c>
       <c r="E24">
-        <v>6676</v>
+        <v>6719</v>
       </c>
       <c r="F24">
         <v>120.9</v>
@@ -2099,16 +2101,16 @@
         <v>37226</v>
       </c>
       <c r="B25">
-        <v>1445392</v>
+        <v>1493479</v>
       </c>
       <c r="C25">
-        <v>651614</v>
+        <v>718980</v>
       </c>
       <c r="D25">
-        <v>31545</v>
+        <v>31550</v>
       </c>
       <c r="E25">
-        <v>7643</v>
+        <v>7607</v>
       </c>
       <c r="F25">
         <v>118.9997</v>
@@ -2167,16 +2169,16 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>1341816</v>
+        <v>1401329</v>
       </c>
       <c r="C26">
-        <v>713060</v>
+        <v>627401</v>
       </c>
       <c r="D26">
-        <v>31893</v>
+        <v>31885</v>
       </c>
       <c r="E26">
-        <v>7561</v>
+        <v>7512</v>
       </c>
       <c r="F26">
         <v>120.001</v>
@@ -2235,16 +2237,16 @@
         <v>37288</v>
       </c>
       <c r="B27">
-        <v>1246206</v>
+        <v>1291283</v>
       </c>
       <c r="C27">
-        <v>674735</v>
+        <v>614577</v>
       </c>
       <c r="D27">
-        <v>27860</v>
+        <v>27986</v>
       </c>
       <c r="E27">
-        <v>6783</v>
+        <v>6879</v>
       </c>
       <c r="F27">
         <v>111.0004</v>
@@ -2303,16 +2305,16 @@
         <v>37316</v>
       </c>
       <c r="B28">
-        <v>1497939</v>
+        <v>1554287</v>
       </c>
       <c r="C28">
-        <v>899844</v>
+        <v>781023</v>
       </c>
       <c r="D28">
-        <v>31347</v>
+        <v>31362</v>
       </c>
       <c r="E28">
-        <v>8581</v>
+        <v>8530</v>
       </c>
       <c r="F28">
         <v>111.9999</v>
@@ -2371,16 +2373,16 @@
         <v>37347</v>
       </c>
       <c r="B29">
-        <v>1446516</v>
+        <v>1500088</v>
       </c>
       <c r="C29">
-        <v>756571</v>
+        <v>667439</v>
       </c>
       <c r="D29">
-        <v>30993</v>
+        <v>31018</v>
       </c>
       <c r="E29">
-        <v>7937</v>
+        <v>7906</v>
       </c>
       <c r="F29">
         <v>119.4</v>
@@ -2439,16 +2441,16 @@
         <v>37377</v>
       </c>
       <c r="B30">
-        <v>1474570</v>
+        <v>1515151</v>
       </c>
       <c r="C30">
-        <v>701013</v>
+        <v>634684</v>
       </c>
       <c r="D30">
-        <v>31701</v>
+        <v>31674</v>
       </c>
       <c r="E30">
-        <v>7685</v>
+        <v>7689</v>
       </c>
       <c r="F30">
         <v>120.001</v>
@@ -2507,16 +2509,16 @@
         <v>37408</v>
       </c>
       <c r="B31">
-        <v>1416220</v>
+        <v>1459882</v>
       </c>
       <c r="C31">
-        <v>690848</v>
+        <v>677477</v>
       </c>
       <c r="D31">
-        <v>30636</v>
+        <v>30641</v>
       </c>
       <c r="E31">
-        <v>7757</v>
+        <v>7714</v>
       </c>
       <c r="F31">
         <v>114</v>
@@ -2575,16 +2577,16 @@
         <v>37438</v>
       </c>
       <c r="B32">
-        <v>1774535</v>
+        <v>1814025</v>
       </c>
       <c r="C32">
-        <v>840036</v>
+        <v>734162</v>
       </c>
       <c r="D32">
-        <v>32630</v>
+        <v>32554</v>
       </c>
       <c r="E32">
-        <v>8666</v>
+        <v>8744</v>
       </c>
       <c r="F32">
         <v>118.9997</v>
@@ -2643,16 +2645,16 @@
         <v>37469</v>
       </c>
       <c r="B33">
-        <v>1730203</v>
+        <v>1773479</v>
       </c>
       <c r="C33">
-        <v>809876</v>
+        <v>756872</v>
       </c>
       <c r="D33">
-        <v>32490</v>
+        <v>32456</v>
       </c>
       <c r="E33">
-        <v>8728</v>
+        <v>8745</v>
       </c>
       <c r="F33">
         <v>120.001</v>
@@ -2711,16 +2713,16 @@
         <v>37500</v>
       </c>
       <c r="B34">
-        <v>1337002</v>
+        <v>1371928</v>
       </c>
       <c r="C34">
-        <v>571845</v>
+        <v>520519</v>
       </c>
       <c r="D34">
-        <v>30198</v>
+        <v>30166</v>
       </c>
       <c r="E34">
-        <v>7128</v>
+        <v>7097</v>
       </c>
       <c r="F34">
         <v>111</v>
@@ -2779,16 +2781,16 @@
         <v>37530</v>
       </c>
       <c r="B35">
-        <v>1398070</v>
+        <v>1434767</v>
       </c>
       <c r="C35">
-        <v>592029</v>
+        <v>603652</v>
       </c>
       <c r="D35">
-        <v>30707</v>
+        <v>30693</v>
       </c>
       <c r="E35">
-        <v>7561</v>
+        <v>7541</v>
       </c>
       <c r="F35">
         <v>122.9987</v>
@@ -2847,16 +2849,16 @@
         <v>37561</v>
       </c>
       <c r="B36">
-        <v>1424842</v>
+        <v>1463324</v>
       </c>
       <c r="C36">
-        <v>655350</v>
+        <v>681332</v>
       </c>
       <c r="D36">
-        <v>29981</v>
+        <v>30005</v>
       </c>
       <c r="E36">
-        <v>7886</v>
+        <v>7961</v>
       </c>
       <c r="F36">
         <v>114.6</v>
@@ -2915,16 +2917,16 @@
         <v>37591</v>
       </c>
       <c r="B37">
-        <v>1570039</v>
+        <v>1618044</v>
       </c>
       <c r="C37">
-        <v>742759</v>
+        <v>779452</v>
       </c>
       <c r="D37">
-        <v>31446</v>
+        <v>31635</v>
       </c>
       <c r="E37">
-        <v>8295</v>
+        <v>8297</v>
       </c>
       <c r="F37">
         <v>111.6992</v>
@@ -2983,16 +2985,16 @@
         <v>37622</v>
       </c>
       <c r="B38">
-        <v>1424838</v>
+        <v>1488039</v>
       </c>
       <c r="C38">
-        <v>805550</v>
+        <v>698661</v>
       </c>
       <c r="D38">
-        <v>31616</v>
+        <v>31712</v>
       </c>
       <c r="E38">
-        <v>8145</v>
+        <v>8019</v>
       </c>
       <c r="F38">
         <v>109.4</v>
@@ -3051,16 +3053,16 @@
         <v>37653</v>
       </c>
       <c r="B39">
-        <v>1337700</v>
+        <v>1381312</v>
       </c>
       <c r="C39">
-        <v>663284</v>
+        <v>616495</v>
       </c>
       <c r="D39">
-        <v>28150</v>
+        <v>27847</v>
       </c>
       <c r="E39">
-        <v>7196</v>
+        <v>7610</v>
       </c>
       <c r="F39">
         <v>103.7</v>
@@ -3119,16 +3121,16 @@
         <v>37681</v>
       </c>
       <c r="B40">
-        <v>1544731</v>
+        <v>1596860</v>
       </c>
       <c r="C40">
-        <v>787677</v>
+        <v>695379</v>
       </c>
       <c r="D40">
-        <v>30550</v>
+        <v>30517</v>
       </c>
       <c r="E40">
-        <v>8366</v>
+        <v>8299</v>
       </c>
       <c r="F40">
         <v>113.5</v>
@@ -3187,16 +3189,16 @@
         <v>37712</v>
       </c>
       <c r="B41">
-        <v>1540790</v>
+        <v>1582755</v>
       </c>
       <c r="C41">
-        <v>727764</v>
+        <v>641987</v>
       </c>
       <c r="D41">
-        <v>29914</v>
+        <v>29891</v>
       </c>
       <c r="E41">
-        <v>7868</v>
+        <v>7803</v>
       </c>
       <c r="F41">
         <v>107.7</v>
@@ -3255,16 +3257,16 @@
         <v>37742</v>
       </c>
       <c r="B42">
-        <v>1616917</v>
+        <v>1655177</v>
       </c>
       <c r="C42">
-        <v>705018</v>
+        <v>664017</v>
       </c>
       <c r="D42">
-        <v>31080</v>
+        <v>31133</v>
       </c>
       <c r="E42">
-        <v>7808</v>
+        <v>7751</v>
       </c>
       <c r="F42">
         <v>114.2</v>
@@ -3391,16 +3393,16 @@
         <v>37803</v>
       </c>
       <c r="B44">
-        <v>1861207</v>
+        <v>1909999</v>
       </c>
       <c r="C44">
-        <v>932220</v>
+        <v>821650</v>
       </c>
       <c r="D44">
-        <v>31401</v>
+        <v>31375</v>
       </c>
       <c r="E44">
-        <v>8086</v>
+        <v>8081</v>
       </c>
       <c r="F44">
         <v>112.6</v>
@@ -3459,16 +3461,16 @@
         <v>37834</v>
       </c>
       <c r="B45">
-        <v>1770401</v>
+        <v>1850553</v>
       </c>
       <c r="C45">
-        <v>899887</v>
+        <v>824932</v>
       </c>
       <c r="D45">
-        <v>31499</v>
+        <v>31629</v>
       </c>
       <c r="E45">
-        <v>8434</v>
+        <v>8361</v>
       </c>
       <c r="F45">
         <v>119.7</v>
@@ -3527,16 +3529,16 @@
         <v>37865</v>
       </c>
       <c r="B46">
-        <v>1391615</v>
+        <v>1432363</v>
       </c>
       <c r="C46">
-        <v>614472</v>
+        <v>555565</v>
       </c>
       <c r="D46">
-        <v>29202</v>
+        <v>29374</v>
       </c>
       <c r="E46">
-        <v>7150</v>
+        <v>7152</v>
       </c>
       <c r="F46">
         <v>117.658</v>
@@ -3595,16 +3597,16 @@
         <v>37895</v>
       </c>
       <c r="B47">
-        <v>1515666</v>
+        <v>1552449</v>
       </c>
       <c r="C47">
-        <v>651042</v>
+        <v>658703</v>
       </c>
       <c r="D47">
-        <v>30482</v>
+        <v>30519</v>
       </c>
       <c r="E47">
-        <v>7612</v>
+        <v>7927</v>
       </c>
       <c r="F47">
         <v>128.322</v>
@@ -3663,16 +3665,16 @@
         <v>37926</v>
       </c>
       <c r="B48">
-        <v>1591542</v>
+        <v>1637220</v>
       </c>
       <c r="C48">
-        <v>741775</v>
+        <v>750965</v>
       </c>
       <c r="D48">
-        <v>29926</v>
+        <v>29925</v>
       </c>
       <c r="E48">
-        <v>7939</v>
+        <v>7954</v>
       </c>
       <c r="F48">
         <v>119.52500000000001</v>
@@ -3731,16 +3733,16 @@
         <v>37956</v>
       </c>
       <c r="B49">
-        <v>1676338</v>
+        <v>1730743</v>
       </c>
       <c r="C49">
-        <v>807205</v>
+        <v>866798</v>
       </c>
       <c r="D49">
-        <v>30980</v>
+        <v>31011</v>
       </c>
       <c r="E49">
-        <v>8700</v>
+        <v>8716</v>
       </c>
       <c r="F49">
         <v>118.117</v>
@@ -3799,16 +3801,16 @@
         <v>37987</v>
       </c>
       <c r="B50">
-        <v>1477127</v>
+        <v>1531508</v>
       </c>
       <c r="C50">
-        <v>895237</v>
+        <v>791032</v>
       </c>
       <c r="D50">
-        <v>30752</v>
+        <v>30746</v>
       </c>
       <c r="E50">
-        <v>9178</v>
+        <v>9142</v>
       </c>
       <c r="F50">
         <v>115.46</v>
@@ -3867,16 +3869,16 @@
         <v>38018</v>
       </c>
       <c r="B51">
-        <v>1438139</v>
+        <v>1492488</v>
       </c>
       <c r="C51">
-        <v>835490</v>
+        <v>777921</v>
       </c>
       <c r="D51">
-        <v>28369</v>
+        <v>28379</v>
       </c>
       <c r="E51">
-        <v>8614</v>
+        <v>8615</v>
       </c>
       <c r="F51">
         <v>113.779</v>
@@ -3935,16 +3937,16 @@
         <v>38047</v>
       </c>
       <c r="B52">
-        <v>1615595</v>
+        <v>1676646</v>
       </c>
       <c r="C52">
-        <v>949014</v>
+        <v>833979</v>
       </c>
       <c r="D52">
-        <v>31330</v>
+        <v>31349</v>
       </c>
       <c r="E52">
-        <v>9323</v>
+        <v>9290</v>
       </c>
       <c r="F52">
         <v>127.803</v>
@@ -4003,16 +4005,16 @@
         <v>38078</v>
       </c>
       <c r="B53">
-        <v>1678891</v>
+        <v>1730050</v>
       </c>
       <c r="C53">
-        <v>929718</v>
+        <v>837861</v>
       </c>
       <c r="D53">
-        <v>30605</v>
+        <v>30610</v>
       </c>
       <c r="E53">
-        <v>9051</v>
+        <v>9016</v>
       </c>
       <c r="F53">
         <v>112.568</v>
@@ -4071,16 +4073,16 @@
         <v>38108</v>
       </c>
       <c r="B54">
-        <v>1701820</v>
+        <v>1751594</v>
       </c>
       <c r="C54">
-        <v>835976</v>
+        <v>767502</v>
       </c>
       <c r="D54">
-        <v>31226</v>
+        <v>31265</v>
       </c>
       <c r="E54">
-        <v>9002</v>
+        <v>8982</v>
       </c>
       <c r="F54">
         <v>120.642</v>
@@ -4139,16 +4141,16 @@
         <v>38139</v>
       </c>
       <c r="B55">
-        <v>1616342</v>
+        <v>1675462</v>
       </c>
       <c r="C55">
-        <v>857279</v>
+        <v>837817</v>
       </c>
       <c r="D55">
-        <v>30553</v>
+        <v>30624</v>
       </c>
       <c r="E55">
-        <v>8796</v>
+        <v>8770</v>
       </c>
       <c r="F55">
         <v>119.099</v>
@@ -4207,16 +4209,16 @@
         <v>38169</v>
       </c>
       <c r="B56">
-        <v>2008424</v>
+        <v>2079036</v>
       </c>
       <c r="C56">
-        <v>1085435</v>
+        <v>978852</v>
       </c>
       <c r="D56">
-        <v>33089</v>
+        <v>33207</v>
       </c>
       <c r="E56">
-        <v>9618</v>
+        <v>9633</v>
       </c>
       <c r="F56">
         <v>118.29600000000001</v>
@@ -4275,16 +4277,16 @@
         <v>38200</v>
       </c>
       <c r="B57">
-        <v>1833446</v>
+        <v>1908598</v>
       </c>
       <c r="C57">
-        <v>992328</v>
+        <v>913237</v>
       </c>
       <c r="D57">
-        <v>33295</v>
+        <v>33367</v>
       </c>
       <c r="E57">
-        <v>9582</v>
+        <v>9550</v>
       </c>
       <c r="F57">
         <v>124.44</v>
@@ -4343,16 +4345,16 @@
         <v>38231</v>
       </c>
       <c r="B58">
-        <v>1443091</v>
+        <v>1505689</v>
       </c>
       <c r="C58">
-        <v>688076</v>
+        <v>644377</v>
       </c>
       <c r="D58">
-        <v>29861</v>
+        <v>29929</v>
       </c>
       <c r="E58">
-        <v>8045</v>
+        <v>7960</v>
       </c>
       <c r="F58">
         <v>119.495</v>
@@ -4411,16 +4413,16 @@
         <v>38261</v>
       </c>
       <c r="B59">
-        <v>1606751</v>
+        <v>1682514</v>
       </c>
       <c r="C59">
-        <v>782456</v>
+        <v>770725</v>
       </c>
       <c r="D59">
-        <v>30430</v>
+        <v>30786</v>
       </c>
       <c r="E59">
-        <v>8399</v>
+        <v>8411</v>
       </c>
       <c r="F59">
         <v>127.116</v>
@@ -4479,16 +4481,16 @@
         <v>38292</v>
       </c>
       <c r="B60">
-        <v>1606478</v>
+        <v>1691070</v>
       </c>
       <c r="C60">
-        <v>848535</v>
+        <v>864256</v>
       </c>
       <c r="D60">
-        <v>30220</v>
+        <v>30471</v>
       </c>
       <c r="E60">
-        <v>9007</v>
+        <v>9020</v>
       </c>
       <c r="F60">
         <v>122.797</v>
@@ -4547,16 +4549,16 @@
         <v>38322</v>
       </c>
       <c r="B61">
-        <v>1667369</v>
+        <v>1750503</v>
       </c>
       <c r="C61">
-        <v>951366</v>
+        <v>1053742</v>
       </c>
       <c r="D61">
-        <v>31640</v>
+        <v>31925</v>
       </c>
       <c r="E61">
-        <v>10296</v>
+        <v>10363</v>
       </c>
       <c r="F61">
         <v>120.163</v>
@@ -4615,16 +4617,16 @@
         <v>38353</v>
       </c>
       <c r="B62">
-        <v>1503335</v>
+        <v>1590431</v>
       </c>
       <c r="C62">
-        <v>1091896</v>
+        <v>986071</v>
       </c>
       <c r="D62">
-        <v>30835</v>
+        <v>31102</v>
       </c>
       <c r="E62">
-        <v>10656</v>
+        <v>10709</v>
       </c>
       <c r="F62">
         <v>116.97</v>
@@ -4683,16 +4685,16 @@
         <v>38384</v>
       </c>
       <c r="B63">
-        <v>1456263</v>
+        <v>1529524</v>
       </c>
       <c r="C63">
-        <v>968995</v>
+        <v>905737</v>
       </c>
       <c r="D63">
-        <v>28349</v>
+        <v>28341</v>
       </c>
       <c r="E63">
-        <v>9900</v>
+        <v>9872</v>
       </c>
       <c r="F63">
         <v>113.979</v>
@@ -4751,16 +4753,16 @@
         <v>38412</v>
       </c>
       <c r="B64">
-        <v>1686406</v>
+        <v>1779521</v>
       </c>
       <c r="C64">
-        <v>1195982</v>
+        <v>1088681</v>
       </c>
       <c r="D64">
-        <v>31325</v>
+        <v>31357</v>
       </c>
       <c r="E64">
-        <v>11251</v>
+        <v>11203</v>
       </c>
       <c r="F64">
         <v>116.682</v>
@@ -4819,16 +4821,16 @@
         <v>38443</v>
       </c>
       <c r="B65">
-        <v>1601818</v>
+        <v>1682566</v>
       </c>
       <c r="C65">
-        <v>1607018</v>
+        <v>960743</v>
       </c>
       <c r="D65">
-        <v>30471</v>
+        <v>30584</v>
       </c>
       <c r="E65">
-        <v>10639</v>
+        <v>10574</v>
       </c>
       <c r="F65">
         <v>122.244</v>
@@ -4887,16 +4889,16 @@
         <v>38473</v>
       </c>
       <c r="B66">
-        <v>1729490</v>
+        <v>1807387</v>
       </c>
       <c r="C66">
-        <v>993326</v>
+        <v>918024</v>
       </c>
       <c r="D66">
-        <v>30952</v>
+        <v>31143</v>
       </c>
       <c r="E66">
-        <v>10073</v>
+        <v>10113</v>
       </c>
       <c r="F66">
         <v>121.753</v>
@@ -4955,16 +4957,16 @@
         <v>38504</v>
       </c>
       <c r="B67">
-        <v>1687458</v>
+        <v>1770138</v>
       </c>
       <c r="C67">
-        <v>1016992</v>
+        <v>1009139</v>
       </c>
       <c r="D67">
-        <v>30105</v>
+        <v>30439</v>
       </c>
       <c r="E67">
-        <v>10154</v>
+        <v>10211</v>
       </c>
       <c r="F67">
         <v>117.69799999999999</v>
@@ -5023,16 +5025,16 @@
         <v>38534</v>
       </c>
       <c r="B68">
-        <v>1937363</v>
+        <v>2034433</v>
       </c>
       <c r="C68">
-        <v>1243457</v>
+        <v>1117499</v>
       </c>
       <c r="D68">
-        <v>32428</v>
+        <v>32449</v>
       </c>
       <c r="E68">
-        <v>11297</v>
+        <v>11256</v>
       </c>
       <c r="F68">
         <v>116.014</v>
@@ -5091,16 +5093,16 @@
         <v>38565</v>
       </c>
       <c r="B69">
-        <v>1840670</v>
+        <v>1937303</v>
       </c>
       <c r="C69">
-        <v>1109348</v>
+        <v>1012871</v>
       </c>
       <c r="D69">
-        <v>32219</v>
+        <v>32267</v>
       </c>
       <c r="E69">
-        <v>10784</v>
+        <v>10766</v>
       </c>
       <c r="F69">
         <v>124.955</v>
@@ -5159,16 +5161,16 @@
         <v>38596</v>
       </c>
       <c r="B70">
-        <v>1543979</v>
+        <v>1609982</v>
       </c>
       <c r="C70">
-        <v>793293</v>
+        <v>730605</v>
       </c>
       <c r="D70">
-        <v>29315</v>
+        <v>29364</v>
       </c>
       <c r="E70">
-        <v>8751</v>
+        <v>8702</v>
       </c>
       <c r="F70">
         <v>119.27200000000001</v>
@@ -5227,16 +5229,16 @@
         <v>38626</v>
       </c>
       <c r="B71">
-        <v>1622968</v>
+        <v>1692126</v>
       </c>
       <c r="C71">
-        <v>809966</v>
+        <v>797674</v>
       </c>
       <c r="D71">
-        <v>29609</v>
+        <v>29657</v>
       </c>
       <c r="E71">
-        <v>8795</v>
+        <v>8733</v>
       </c>
       <c r="F71">
         <v>125.982</v>
@@ -5295,20 +5297,16 @@
         <v>38657</v>
       </c>
       <c r="B72">
-        <f>ROUND(AVERAGE(B71,B73),0)</f>
-        <v>1694174</v>
+        <v>1770345.5</v>
       </c>
       <c r="C72">
-        <f>ROUND(AVERAGE(C71,C73),0)</f>
-        <v>886207</v>
+        <v>931779.5</v>
       </c>
       <c r="D72">
-        <f>ROUND(AVERAGE(D71,D73),0)</f>
-        <v>30673</v>
+        <v>30677.5</v>
       </c>
       <c r="E72">
-        <f>ROUND(AVERAGE(E71,E73),0)</f>
-        <v>9595</v>
+        <v>9574</v>
       </c>
       <c r="F72">
         <v>123.426</v>
@@ -5367,16 +5365,16 @@
         <v>38687</v>
       </c>
       <c r="B73">
-        <v>1765379</v>
+        <v>1848565</v>
       </c>
       <c r="C73">
-        <v>962447</v>
+        <v>1065885</v>
       </c>
       <c r="D73">
-        <v>31737</v>
+        <v>31698</v>
       </c>
       <c r="E73">
-        <v>10395</v>
+        <v>10415</v>
       </c>
       <c r="F73">
         <v>121.771</v>
@@ -5435,16 +5433,16 @@
         <v>38718</v>
       </c>
       <c r="B74">
-        <v>1609722</v>
+        <v>1699392</v>
       </c>
       <c r="C74">
-        <v>1094835</v>
+        <v>975232</v>
       </c>
       <c r="D74">
-        <v>32479</v>
+        <v>32476</v>
       </c>
       <c r="E74">
-        <v>10610</v>
+        <v>10596</v>
       </c>
       <c r="F74">
         <v>116.1</v>
@@ -5503,16 +5501,16 @@
         <v>38749</v>
       </c>
       <c r="B75">
-        <v>1558891</v>
+        <v>1634196</v>
       </c>
       <c r="C75">
-        <v>956348</v>
+        <v>897716</v>
       </c>
       <c r="D75">
-        <v>29392</v>
+        <v>29414</v>
       </c>
       <c r="E75">
-        <v>9639</v>
+        <v>9627</v>
       </c>
       <c r="F75">
         <v>110.7</v>
@@ -5571,16 +5569,16 @@
         <v>38777</v>
       </c>
       <c r="B76">
-        <v>1906469</v>
+        <v>2000878</v>
       </c>
       <c r="C76">
-        <v>1184696</v>
+        <v>1073990</v>
       </c>
       <c r="D76">
-        <v>34104</v>
+        <v>34109</v>
       </c>
       <c r="E76">
-        <v>11188</v>
+        <v>11180</v>
       </c>
       <c r="F76">
         <v>124</v>
@@ -5639,16 +5637,16 @@
         <v>38808</v>
       </c>
       <c r="B77">
-        <v>1828850</v>
+        <v>1914655</v>
       </c>
       <c r="C77">
-        <v>1200406</v>
+        <v>1047275</v>
       </c>
       <c r="D77">
-        <v>31177</v>
+        <v>31207</v>
       </c>
       <c r="E77">
-        <v>10834</v>
+        <v>10791</v>
       </c>
       <c r="F77">
         <v>108.2</v>
@@ -5707,16 +5705,16 @@
         <v>38838</v>
       </c>
       <c r="B78">
-        <v>1851029</v>
+        <v>1937092</v>
       </c>
       <c r="C78">
-        <v>1031773</v>
+        <v>941982</v>
       </c>
       <c r="D78">
-        <v>33149</v>
+        <v>33172</v>
       </c>
       <c r="E78">
-        <v>9982</v>
+        <v>9983</v>
       </c>
       <c r="F78">
         <v>120.8</v>
@@ -5775,16 +5773,16 @@
         <v>38869</v>
       </c>
       <c r="B79">
-        <v>1781250</v>
+        <v>1868046</v>
       </c>
       <c r="C79">
-        <v>1046059</v>
+        <v>1045196</v>
       </c>
       <c r="D79">
-        <v>33185</v>
+        <v>33223</v>
       </c>
       <c r="E79">
-        <v>10208</v>
+        <v>10153</v>
       </c>
       <c r="F79">
         <v>118</v>
@@ -5843,16 +5841,16 @@
         <v>38899</v>
       </c>
       <c r="B80">
-        <v>2125803</v>
+        <v>2214516</v>
       </c>
       <c r="C80">
-        <v>1290238</v>
+        <v>1148156</v>
       </c>
       <c r="D80">
-        <v>34745</v>
+        <v>34728</v>
       </c>
       <c r="E80">
-        <v>11124</v>
+        <v>11134</v>
       </c>
       <c r="F80">
         <v>116.2</v>
@@ -5911,16 +5909,16 @@
         <v>38930</v>
       </c>
       <c r="B81">
-        <v>2033979</v>
+        <v>2123192</v>
       </c>
       <c r="C81">
-        <v>1127514</v>
+        <v>1028877</v>
       </c>
       <c r="D81">
-        <v>35437</v>
+        <v>35395</v>
       </c>
       <c r="E81">
-        <v>10727</v>
+        <v>10690</v>
       </c>
       <c r="F81">
         <v>127.7</v>
@@ -5979,16 +5977,16 @@
         <v>38961</v>
       </c>
       <c r="B82">
-        <v>1739969</v>
+        <v>1805434</v>
       </c>
       <c r="C82">
-        <v>783335</v>
+        <v>707791</v>
       </c>
       <c r="D82">
-        <v>34485</v>
+        <v>33974</v>
       </c>
       <c r="E82">
-        <v>8742</v>
+        <v>8664</v>
       </c>
       <c r="F82">
         <v>120.9</v>
@@ -6047,16 +6045,16 @@
         <v>38991</v>
       </c>
       <c r="B83">
-        <v>1941138</v>
+        <v>2014966</v>
       </c>
       <c r="C83">
-        <v>849630</v>
+        <v>838332</v>
       </c>
       <c r="D83">
-        <v>36291</v>
+        <v>36215</v>
       </c>
       <c r="E83">
-        <v>9126</v>
+        <v>9110</v>
       </c>
       <c r="F83">
         <v>125.6</v>
@@ -6115,16 +6113,16 @@
         <v>39022</v>
       </c>
       <c r="B84">
-        <v>1885746</v>
+        <v>1972900</v>
       </c>
       <c r="C84">
-        <v>961933</v>
+        <v>957757</v>
       </c>
       <c r="D84">
-        <v>34978</v>
+        <v>34914</v>
       </c>
       <c r="E84">
-        <v>9909</v>
+        <v>9870</v>
       </c>
       <c r="F84">
         <v>117.8</v>
@@ -6183,16 +6181,16 @@
         <v>39052</v>
       </c>
       <c r="B85">
-        <v>2000381</v>
+        <v>2087840</v>
       </c>
       <c r="C85">
-        <v>1105957</v>
+        <v>1192464</v>
       </c>
       <c r="D85">
-        <v>37193</v>
+        <v>37226</v>
       </c>
       <c r="E85">
-        <v>11797</v>
+        <v>11786</v>
       </c>
       <c r="F85">
         <v>112.6</v>
@@ -6251,16 +6249,16 @@
         <v>39083</v>
       </c>
       <c r="B86">
-        <v>1898928</v>
+        <v>1996324</v>
       </c>
       <c r="C86">
-        <v>1207362</v>
+        <v>1056674</v>
       </c>
       <c r="D86">
-        <v>39303</v>
+        <v>39296</v>
       </c>
       <c r="E86">
-        <v>11841</v>
+        <v>11821</v>
       </c>
       <c r="F86">
         <v>111.9</v>
@@ -6319,16 +6317,16 @@
         <v>39114</v>
       </c>
       <c r="B87">
-        <v>1794580</v>
+        <v>1869030</v>
       </c>
       <c r="C87">
-        <v>1026926</v>
+        <v>969889</v>
       </c>
       <c r="D87">
-        <v>35170</v>
+        <v>35204</v>
       </c>
       <c r="E87">
-        <v>10751</v>
+        <v>10723</v>
       </c>
       <c r="F87">
         <v>104.6</v>
@@ -6387,16 +6385,16 @@
         <v>39142</v>
       </c>
       <c r="B88">
-        <v>2267232</v>
+        <v>2369881</v>
       </c>
       <c r="C88">
-        <v>1291083</v>
+        <v>1153857</v>
       </c>
       <c r="D88">
-        <v>39568</v>
+        <v>39611</v>
       </c>
       <c r="E88">
-        <v>12415</v>
+        <v>12367</v>
       </c>
       <c r="F88">
         <v>115.2</v>
@@ -6455,16 +6453,16 @@
         <v>39173</v>
       </c>
       <c r="B89">
-        <v>2243192</v>
+        <v>2348391</v>
       </c>
       <c r="C89">
-        <v>1225503</v>
+        <v>1068639</v>
       </c>
       <c r="D89">
-        <v>37836</v>
+        <v>37879</v>
       </c>
       <c r="E89">
-        <v>11469</v>
+        <v>11426</v>
       </c>
       <c r="F89">
         <v>102.5</v>
@@ -6523,16 +6521,16 @@
         <v>39203</v>
       </c>
       <c r="B90">
-        <v>2345765</v>
+        <v>2444425</v>
       </c>
       <c r="C90">
-        <v>1054284</v>
+        <v>965952</v>
       </c>
       <c r="D90">
-        <v>41247</v>
+        <v>41285</v>
       </c>
       <c r="E90">
-        <v>10366</v>
+        <v>10314</v>
       </c>
       <c r="F90">
         <v>115.3</v>
@@ -6591,16 +6589,16 @@
         <v>39234</v>
       </c>
       <c r="B91">
-        <v>2265605</v>
+        <v>2355243</v>
       </c>
       <c r="C91">
-        <v>1086967</v>
+        <v>1058652</v>
       </c>
       <c r="D91">
-        <v>40007</v>
+        <v>40014</v>
       </c>
       <c r="E91">
-        <v>10757</v>
+        <v>10711</v>
       </c>
       <c r="F91">
         <v>112.2</v>
@@ -6659,16 +6657,16 @@
         <v>39264</v>
       </c>
       <c r="B92">
-        <v>2744890</v>
+        <v>2854370</v>
       </c>
       <c r="C92">
-        <v>1326224</v>
+        <v>1180970</v>
       </c>
       <c r="D92">
-        <v>43606</v>
+        <v>43666</v>
       </c>
       <c r="E92">
-        <v>11536</v>
+        <v>11491</v>
       </c>
       <c r="F92">
         <v>110.5</v>
@@ -6727,16 +6725,16 @@
         <v>39295</v>
       </c>
       <c r="B93">
-        <v>2527728</v>
+        <v>2634835</v>
       </c>
       <c r="C93">
-        <v>1156648</v>
+        <v>1068715</v>
       </c>
       <c r="D93">
-        <v>43589</v>
+        <v>43601</v>
       </c>
       <c r="E93">
-        <v>11122</v>
+        <v>11078</v>
       </c>
       <c r="F93">
         <v>119.1</v>
@@ -6795,16 +6793,16 @@
         <v>39326</v>
       </c>
       <c r="B94">
-        <v>2079634</v>
+        <v>2158479</v>
       </c>
       <c r="C94">
-        <v>855832</v>
+        <v>766530</v>
       </c>
       <c r="D94">
-        <v>39667</v>
+        <v>39715</v>
       </c>
       <c r="E94">
-        <v>9177</v>
+        <v>9141</v>
       </c>
       <c r="F94">
         <v>112.5</v>
@@ -6863,16 +6861,16 @@
         <v>39356</v>
       </c>
       <c r="B95">
-        <v>2301522</v>
+        <v>2372425</v>
       </c>
       <c r="C95">
-        <v>917895</v>
+        <v>908413</v>
       </c>
       <c r="D95">
-        <v>41546</v>
+        <v>41588</v>
       </c>
       <c r="E95">
-        <v>9690</v>
+        <v>9641</v>
       </c>
       <c r="F95">
         <v>123.9</v>
@@ -6931,16 +6929,16 @@
         <v>39387</v>
       </c>
       <c r="B96">
-        <v>2330366</v>
+        <v>2412125</v>
       </c>
       <c r="C96">
-        <v>1081379</v>
+        <v>1059654</v>
       </c>
       <c r="D96">
-        <v>40575</v>
+        <v>40539</v>
       </c>
       <c r="E96">
-        <v>10602</v>
+        <v>10577</v>
       </c>
       <c r="F96">
         <v>112.4</v>
@@ -6999,16 +6997,16 @@
         <v>39417</v>
       </c>
       <c r="B97">
-        <v>2464235</v>
+        <v>2538960</v>
       </c>
       <c r="C97">
-        <v>1199061</v>
+        <v>1270001</v>
       </c>
       <c r="D97">
-        <v>41745</v>
+        <v>41781</v>
       </c>
       <c r="E97">
-        <v>12486</v>
+        <v>12465</v>
       </c>
       <c r="F97">
         <v>111.6</v>
@@ -7067,16 +7065,16 @@
         <v>39448</v>
       </c>
       <c r="B98">
-        <v>2106063</v>
+        <v>2363391</v>
       </c>
       <c r="C98">
-        <v>1328402</v>
+        <v>1180346</v>
       </c>
       <c r="D98">
         <v>42518</v>
       </c>
       <c r="E98">
-        <v>12301</v>
+        <v>12240</v>
       </c>
       <c r="F98">
         <v>113.1</v>
@@ -7135,16 +7133,16 @@
         <v>39479</v>
       </c>
       <c r="B99">
-        <v>2150216</v>
+        <v>2230286</v>
       </c>
       <c r="C99">
-        <v>1219313</v>
+        <v>1138418</v>
       </c>
       <c r="D99">
-        <v>39063</v>
+        <v>39041</v>
       </c>
       <c r="E99">
-        <v>11474</v>
+        <v>11444</v>
       </c>
       <c r="F99">
         <v>113.8</v>
@@ -7203,16 +7201,16 @@
         <v>39508</v>
       </c>
       <c r="B100">
-        <v>2486540</v>
+        <v>2603173</v>
       </c>
       <c r="C100">
-        <v>1526009</v>
+        <v>1368155</v>
       </c>
       <c r="D100">
-        <v>41844</v>
+        <v>41949</v>
       </c>
       <c r="E100">
-        <v>12997</v>
+        <v>12954</v>
       </c>
       <c r="F100">
         <v>111.5</v>
@@ -7271,16 +7269,16 @@
         <v>39539</v>
       </c>
       <c r="B101">
-        <v>2297889</v>
+        <v>2386780</v>
       </c>
       <c r="C101">
-        <v>1280249</v>
+        <v>1081431</v>
       </c>
       <c r="D101">
-        <v>40573</v>
+        <v>40579</v>
       </c>
       <c r="E101">
-        <v>11370</v>
+        <v>11323</v>
       </c>
       <c r="F101">
         <v>119.7</v>
@@ -7339,16 +7337,16 @@
         <v>39569</v>
       </c>
       <c r="B102">
-        <v>2432088</v>
+        <v>2530674</v>
       </c>
       <c r="C102">
-        <v>1177937</v>
+        <v>1057354</v>
       </c>
       <c r="D102">
-        <v>39681</v>
+        <v>39700</v>
       </c>
       <c r="E102">
-        <v>10678</v>
+        <v>10577</v>
       </c>
       <c r="F102">
         <v>119.8</v>
@@ -7407,16 +7405,16 @@
         <v>39600</v>
       </c>
       <c r="B103">
-        <v>2314607</v>
+        <v>2418594</v>
       </c>
       <c r="C103">
-        <v>1166516</v>
+        <v>1108892</v>
       </c>
       <c r="D103">
-        <v>36881</v>
+        <v>36916</v>
       </c>
       <c r="E103">
-        <v>10519</v>
+        <v>10498</v>
       </c>
       <c r="F103">
         <v>121.2</v>
@@ -7475,16 +7473,16 @@
         <v>39630</v>
       </c>
       <c r="B104">
-        <v>2627441</v>
+        <v>2738484</v>
       </c>
       <c r="C104">
-        <v>1333196</v>
+        <v>1187186</v>
       </c>
       <c r="D104">
-        <v>39391</v>
+        <v>39405</v>
       </c>
       <c r="E104">
-        <v>11260</v>
+        <v>11223</v>
       </c>
       <c r="F104">
         <v>124.9</v>
@@ -7543,16 +7541,16 @@
         <v>39661</v>
       </c>
       <c r="B105">
-        <v>2361145</v>
+        <v>2481617</v>
       </c>
       <c r="C105">
-        <v>1245201</v>
+        <v>1094976</v>
       </c>
       <c r="D105">
-        <v>37501</v>
+        <v>37541</v>
       </c>
       <c r="E105">
-        <v>10873</v>
+        <v>10842</v>
       </c>
       <c r="F105">
         <v>130.30000000000001</v>
@@ -7611,16 +7609,16 @@
         <v>39692</v>
       </c>
       <c r="B106">
-        <v>1976692</v>
+        <v>2048549</v>
       </c>
       <c r="C106">
-        <v>819574</v>
+        <v>732987</v>
       </c>
       <c r="D106">
-        <v>34231</v>
+        <v>34260</v>
       </c>
       <c r="E106">
-        <v>8306</v>
+        <v>8261</v>
       </c>
       <c r="F106">
         <v>117.6</v>
@@ -7679,16 +7677,16 @@
         <v>39722</v>
       </c>
       <c r="B107">
-        <v>2139399</v>
+        <v>2213348</v>
       </c>
       <c r="C107">
-        <v>878140</v>
+        <v>865992</v>
       </c>
       <c r="D107">
-        <v>36410</v>
+        <v>36436</v>
       </c>
       <c r="E107">
-        <v>9040</v>
+        <v>8980</v>
       </c>
       <c r="F107">
         <v>136.19999999999999</v>
@@ -7747,16 +7745,16 @@
         <v>39753</v>
       </c>
       <c r="B108">
-        <v>2159953</v>
+        <v>2243816</v>
       </c>
       <c r="C108">
-        <v>1026284</v>
+        <v>1013786</v>
       </c>
       <c r="D108">
-        <v>32162</v>
+        <v>32118</v>
       </c>
       <c r="E108">
-        <v>9956</v>
+        <v>9962</v>
       </c>
       <c r="F108">
         <v>126.2</v>
@@ -7815,16 +7813,16 @@
         <v>39783</v>
       </c>
       <c r="B109">
-        <v>2240326</v>
+        <v>2318475</v>
       </c>
       <c r="C109">
-        <v>1131744</v>
+        <v>1197361</v>
       </c>
       <c r="D109">
-        <v>32368</v>
+        <v>32737</v>
       </c>
       <c r="E109">
-        <v>11099</v>
+        <v>11105</v>
       </c>
       <c r="F109">
         <v>125.1</v>
@@ -7883,16 +7881,16 @@
         <v>39814</v>
       </c>
       <c r="B110">
-        <v>2038842</v>
+        <v>2131787</v>
       </c>
       <c r="C110">
-        <v>1275096</v>
+        <v>1124208</v>
       </c>
       <c r="D110">
-        <v>31987</v>
+        <v>31995</v>
       </c>
       <c r="E110">
-        <v>11458</v>
+        <v>11415</v>
       </c>
       <c r="F110">
         <v>113.1</v>
@@ -7951,16 +7949,16 @@
         <v>39845</v>
       </c>
       <c r="B111">
-        <v>1920924</v>
+        <v>1990094</v>
       </c>
       <c r="C111">
-        <v>1116783</v>
+        <v>1073275</v>
       </c>
       <c r="D111">
-        <v>28900</v>
+        <v>29091</v>
       </c>
       <c r="E111">
-        <v>10380</v>
+        <v>10434</v>
       </c>
       <c r="F111">
         <v>110.1</v>
@@ -8019,16 +8017,16 @@
         <v>39873</v>
       </c>
       <c r="B112">
-        <v>2112724</v>
+        <v>2200427</v>
       </c>
       <c r="C112">
-        <v>1339849</v>
+        <v>1182129</v>
       </c>
       <c r="D112">
-        <v>32183</v>
+        <v>32231</v>
       </c>
       <c r="E112">
-        <v>11908</v>
+        <v>11864</v>
       </c>
       <c r="F112">
         <v>123.7</v>
@@ -8087,16 +8085,16 @@
         <v>39904</v>
       </c>
       <c r="B113">
-        <v>2043410</v>
+        <v>2122739</v>
       </c>
       <c r="C113">
-        <v>1245305</v>
+        <v>1049604</v>
       </c>
       <c r="D113">
-        <v>32037</v>
+        <v>32025</v>
       </c>
       <c r="E113">
-        <v>11047</v>
+        <v>11045</v>
       </c>
       <c r="F113">
         <v>105.8</v>
@@ -8155,16 +8153,16 @@
         <v>39934</v>
       </c>
       <c r="B114">
-        <v>1578116</v>
+        <v>1617192</v>
       </c>
       <c r="C114">
-        <v>1597730</v>
+        <v>523232</v>
       </c>
       <c r="D114">
-        <v>28450</v>
+        <v>28487</v>
       </c>
       <c r="E114">
-        <v>7553</v>
+        <v>7502</v>
       </c>
       <c r="F114">
         <v>109.1</v>
@@ -8223,16 +8221,16 @@
         <v>39965</v>
       </c>
       <c r="B115">
-        <v>1954407</v>
+        <v>2011162</v>
       </c>
       <c r="C115">
-        <v>812233</v>
+        <v>831486</v>
       </c>
       <c r="D115">
-        <v>31002</v>
+        <v>31030</v>
       </c>
       <c r="E115">
-        <v>8201</v>
+        <v>8175</v>
       </c>
       <c r="F115">
         <v>121</v>
@@ -8291,16 +8289,16 @@
         <v>39995</v>
       </c>
       <c r="B116">
-        <v>2325389</v>
+        <v>2405413</v>
       </c>
       <c r="C116">
-        <v>1096031</v>
+        <v>990425</v>
       </c>
       <c r="D116">
-        <v>33093</v>
+        <v>33144</v>
       </c>
       <c r="E116">
-        <v>9298</v>
+        <v>9223</v>
       </c>
       <c r="F116">
         <v>120.1</v>
@@ -8359,16 +8357,16 @@
         <v>40026</v>
       </c>
       <c r="B117">
-        <v>2180675</v>
+        <v>2275805</v>
       </c>
       <c r="C117">
-        <v>1064012</v>
+        <v>943899</v>
       </c>
       <c r="D117">
-        <v>33080</v>
+        <v>33151</v>
       </c>
       <c r="E117">
-        <v>9169</v>
+        <v>9129</v>
       </c>
       <c r="F117">
         <v>125.6</v>
@@ -8427,16 +8425,16 @@
         <v>40057</v>
       </c>
       <c r="B118">
-        <v>1720983</v>
+        <v>1781153</v>
       </c>
       <c r="C118">
-        <v>747961</v>
+        <v>685855</v>
       </c>
       <c r="D118">
-        <v>30641</v>
+        <v>30680</v>
       </c>
       <c r="E118">
-        <v>7632</v>
+        <v>7617</v>
       </c>
       <c r="F118">
         <v>119.8</v>
@@ -8495,16 +8493,16 @@
         <v>40087</v>
       </c>
       <c r="B119">
-        <v>1915322</v>
+        <v>1984029</v>
       </c>
       <c r="C119">
-        <v>837499</v>
+        <v>821054</v>
       </c>
       <c r="D119">
-        <v>32714</v>
+        <v>32786</v>
       </c>
       <c r="E119">
-        <v>8401</v>
+        <v>8354</v>
       </c>
       <c r="F119">
         <v>128</v>
@@ -8563,16 +8561,16 @@
         <v>40118</v>
       </c>
       <c r="B120">
-        <v>1942512</v>
+        <v>2020442</v>
       </c>
       <c r="C120">
-        <v>974613</v>
+        <v>961169</v>
       </c>
       <c r="D120">
-        <v>31968</v>
+        <v>32061</v>
       </c>
       <c r="E120">
-        <v>9451</v>
+        <v>9343</v>
       </c>
       <c r="F120">
         <v>118.5</v>
@@ -8631,16 +8629,16 @@
         <v>40148</v>
       </c>
       <c r="B121">
-        <v>2062841</v>
+        <v>2128237</v>
       </c>
       <c r="C121">
-        <v>1122221</v>
+        <v>1193724</v>
       </c>
       <c r="D121">
-        <v>32556</v>
+        <v>32625</v>
       </c>
       <c r="E121">
-        <v>11048</v>
+        <v>10984</v>
       </c>
       <c r="F121">
         <v>119.5</v>
@@ -8699,16 +8697,16 @@
         <v>40179</v>
       </c>
       <c r="B122">
-        <v>1807837</v>
+        <v>1890976</v>
       </c>
       <c r="C122">
-        <v>1271984</v>
+        <v>1139946</v>
       </c>
       <c r="D122">
-        <v>32238</v>
+        <v>32285</v>
       </c>
       <c r="E122">
-        <v>11405</v>
+        <v>11357</v>
       </c>
       <c r="F122">
         <v>112.28</v>
@@ -8767,16 +8765,16 @@
         <v>40210</v>
       </c>
       <c r="B123">
-        <v>1634530</v>
+        <v>1704899</v>
       </c>
       <c r="C123">
-        <v>1116514</v>
+        <v>1060324</v>
       </c>
       <c r="D123">
-        <v>28547</v>
+        <v>28534</v>
       </c>
       <c r="E123">
-        <v>10161</v>
+        <v>10151</v>
       </c>
       <c r="F123">
         <v>109.14</v>
@@ -8835,16 +8833,16 @@
         <v>40238</v>
       </c>
       <c r="B124">
-        <v>2031839</v>
+        <v>2117103</v>
       </c>
       <c r="C124">
-        <v>1380805</v>
+        <v>1222498</v>
       </c>
       <c r="D124">
-        <v>32608</v>
+        <v>32646</v>
       </c>
       <c r="E124">
-        <v>11577</v>
+        <v>11536</v>
       </c>
       <c r="F124">
         <v>121.18</v>
@@ -8903,16 +8901,16 @@
         <v>40269</v>
       </c>
       <c r="B125">
-        <v>1941371</v>
+        <v>2028473</v>
       </c>
       <c r="C125">
-        <v>1224858</v>
+        <v>1059940</v>
       </c>
       <c r="D125">
-        <v>31375</v>
+        <v>31396</v>
       </c>
       <c r="E125">
-        <v>10635</v>
+        <v>10605</v>
       </c>
       <c r="F125">
         <v>112.91</v>
@@ -8971,16 +8969,16 @@
         <v>40299</v>
       </c>
       <c r="B126">
-        <v>2085260</v>
+        <v>2163802</v>
       </c>
       <c r="C126">
-        <v>1086648</v>
+        <v>981470</v>
       </c>
       <c r="D126">
-        <v>33025</v>
+        <v>33065</v>
       </c>
       <c r="E126">
-        <v>10054</v>
+        <v>10019</v>
       </c>
       <c r="F126">
         <v>117.31</v>
@@ -9039,16 +9037,16 @@
         <v>40330</v>
       </c>
       <c r="B127">
-        <v>2002459</v>
+        <v>2086806</v>
       </c>
       <c r="C127">
-        <v>1077963</v>
+        <v>1049958</v>
       </c>
       <c r="D127">
-        <v>32159</v>
+        <v>32179</v>
       </c>
       <c r="E127">
-        <v>10045</v>
+        <v>10035</v>
       </c>
       <c r="F127">
         <v>114.23</v>
@@ -9107,16 +9105,16 @@
         <v>40360</v>
       </c>
       <c r="B128">
-        <v>2431404</v>
+        <v>2520263</v>
       </c>
       <c r="C128">
-        <v>1321828</v>
+        <v>1195353</v>
       </c>
       <c r="D128">
-        <v>34936</v>
+        <v>34793</v>
       </c>
       <c r="E128">
-        <v>11206</v>
+        <v>11178</v>
       </c>
       <c r="F128">
         <v>114.2</v>
@@ -9175,16 +9173,16 @@
         <v>40391</v>
       </c>
       <c r="B129">
-        <v>2238789</v>
+        <v>2327214</v>
       </c>
       <c r="C129">
-        <v>1166958</v>
+        <v>1029208</v>
       </c>
       <c r="D129">
-        <v>32677</v>
+        <v>32316</v>
       </c>
       <c r="E129">
-        <v>9871</v>
+        <v>9869</v>
       </c>
       <c r="F129">
         <v>121.73</v>
@@ -9243,16 +9241,16 @@
         <v>40422</v>
       </c>
       <c r="B130">
-        <v>1702230</v>
+        <v>1736563</v>
       </c>
       <c r="C130">
-        <v>757191</v>
+        <v>698728</v>
       </c>
       <c r="D130">
-        <v>23948</v>
+        <v>23978</v>
       </c>
       <c r="E130">
-        <v>7045</v>
+        <v>7010</v>
       </c>
       <c r="F130">
         <v>117.06</v>
@@ -9311,16 +9309,16 @@
         <v>40452</v>
       </c>
       <c r="B131">
-        <v>1921343</v>
+        <v>1964019</v>
       </c>
       <c r="C131">
-        <v>845513</v>
+        <v>843635</v>
       </c>
       <c r="D131">
-        <v>26376</v>
+        <v>26434</v>
       </c>
       <c r="E131">
-        <v>7853</v>
+        <v>7783</v>
       </c>
       <c r="F131">
         <v>125.86</v>
@@ -9379,16 +9377,16 @@
         <v>40483</v>
       </c>
       <c r="B132">
-        <v>1915633</v>
+        <v>1962848</v>
       </c>
       <c r="C132">
-        <v>946283</v>
+        <v>969074</v>
       </c>
       <c r="D132">
-        <v>26135</v>
+        <v>26178</v>
       </c>
       <c r="E132">
-        <v>8748</v>
+        <v>8713</v>
       </c>
       <c r="F132">
         <v>122.6</v>
@@ -9447,16 +9445,16 @@
         <v>40513</v>
       </c>
       <c r="B133">
-        <v>2038083</v>
+        <v>2078213</v>
       </c>
       <c r="C133">
-        <v>1110921</v>
+        <v>1183405</v>
       </c>
       <c r="D133">
-        <v>27495</v>
+        <v>27556</v>
       </c>
       <c r="E133">
-        <v>10447</v>
+        <v>10409</v>
       </c>
       <c r="F133">
         <v>121.66</v>
@@ -9515,16 +9513,16 @@
         <v>40544</v>
       </c>
       <c r="B134">
-        <v>1793353</v>
+        <v>1852220</v>
       </c>
       <c r="C134">
-        <v>1239265</v>
+        <v>1152262</v>
       </c>
       <c r="D134">
-        <v>26588</v>
+        <v>26631</v>
       </c>
       <c r="E134">
-        <v>11219</v>
+        <v>11163</v>
       </c>
       <c r="F134">
         <v>126.949629</v>
@@ -9583,16 +9581,16 @@
         <v>40575</v>
       </c>
       <c r="B135">
-        <v>1660502</v>
+        <v>1701559</v>
       </c>
       <c r="C135">
-        <v>1080465</v>
+        <v>1043384</v>
       </c>
       <c r="D135">
-        <v>23705</v>
+        <v>23740</v>
       </c>
       <c r="E135">
-        <v>9987</v>
+        <v>9954</v>
       </c>
       <c r="F135">
         <v>121.28665599999999</v>
@@ -9651,16 +9649,16 @@
         <v>40603</v>
       </c>
       <c r="B136">
-        <v>1963903</v>
+        <v>2012348</v>
       </c>
       <c r="C136">
-        <v>1324000</v>
+        <v>1214683</v>
       </c>
       <c r="D136">
-        <v>27800</v>
+        <v>27851</v>
       </c>
       <c r="E136">
-        <v>11620</v>
+        <v>11576</v>
       </c>
       <c r="F136">
         <v>135.35716099999999</v>
@@ -9719,16 +9717,16 @@
         <v>40634</v>
       </c>
       <c r="B137">
-        <v>2004464</v>
+        <v>2043892</v>
       </c>
       <c r="C137">
-        <v>1271870</v>
+        <v>1109062</v>
       </c>
       <c r="D137">
-        <v>27548</v>
+        <v>27568</v>
       </c>
       <c r="E137">
-        <v>11029</v>
+        <v>11004</v>
       </c>
       <c r="F137">
         <v>118.293897</v>
@@ -9787,16 +9785,16 @@
         <v>40664</v>
       </c>
       <c r="B138">
-        <v>2128558</v>
+        <v>2174861</v>
       </c>
       <c r="C138">
-        <v>1067257</v>
+        <v>995144</v>
       </c>
       <c r="D138">
-        <v>28446</v>
+        <v>28505</v>
       </c>
       <c r="E138">
-        <v>9744</v>
+        <v>9673</v>
       </c>
       <c r="F138">
         <v>126.846642</v>
@@ -9855,16 +9853,16 @@
         <v>40695</v>
       </c>
       <c r="B139">
-        <v>2024039</v>
+        <v>2065365</v>
       </c>
       <c r="C139">
-        <v>1035329</v>
+        <v>1040226</v>
       </c>
       <c r="D139">
-        <v>28175</v>
+        <v>28217</v>
       </c>
       <c r="E139">
-        <v>9599</v>
+        <v>9553</v>
       </c>
       <c r="F139">
         <v>130.443037</v>
@@ -9923,16 +9921,16 @@
         <v>40725</v>
       </c>
       <c r="B140">
-        <v>2429636</v>
+        <v>2483655</v>
       </c>
       <c r="C140">
-        <v>1318604</v>
+        <v>1199280</v>
       </c>
       <c r="D140">
-        <v>29746</v>
+        <v>29802</v>
       </c>
       <c r="E140">
-        <v>10629</v>
+        <v>10563</v>
       </c>
       <c r="F140">
         <v>132.445021</v>
@@ -9991,16 +9989,16 @@
         <v>40756</v>
       </c>
       <c r="B141">
-        <v>2231973</v>
+        <v>2298848</v>
       </c>
       <c r="C141">
-        <v>1161502</v>
+        <v>1062633</v>
       </c>
       <c r="D141">
-        <v>29812</v>
+        <v>29854</v>
       </c>
       <c r="E141">
-        <v>9991</v>
+        <v>9948</v>
       </c>
       <c r="F141">
         <v>138.450287</v>
@@ -10059,16 +10057,16 @@
         <v>40787</v>
       </c>
       <c r="B142">
-        <v>1955808</v>
+        <v>2001097</v>
       </c>
       <c r="C142">
-        <v>869245</v>
+        <v>806040</v>
       </c>
       <c r="D142">
-        <v>28279</v>
+        <v>28258</v>
       </c>
       <c r="E142">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="F142">
         <v>137.01007300000001</v>
@@ -10127,16 +10125,16 @@
         <v>40817</v>
       </c>
       <c r="B143">
-        <v>2120908</v>
+        <v>2175168</v>
       </c>
       <c r="C143">
-        <v>944589</v>
+        <v>936490</v>
       </c>
       <c r="D143">
-        <v>28995</v>
+        <v>29020</v>
       </c>
       <c r="E143">
-        <v>9210</v>
+        <v>9213</v>
       </c>
       <c r="F143">
         <v>146.379009</v>
@@ -10195,16 +10193,16 @@
         <v>40848</v>
       </c>
       <c r="B144">
-        <v>2150489</v>
+        <v>2206164</v>
       </c>
       <c r="C144">
-        <v>1053097</v>
+        <v>1074589</v>
       </c>
       <c r="D144">
-        <v>28980</v>
+        <v>28997</v>
       </c>
       <c r="E144">
-        <v>9798</v>
+        <v>9796</v>
       </c>
       <c r="F144">
         <v>138.78000700000001</v>
@@ -10263,16 +10261,16 @@
         <v>40878</v>
       </c>
       <c r="B145">
-        <v>2322054</v>
+        <v>2370877</v>
       </c>
       <c r="C145">
-        <v>1262575</v>
+        <v>1359026</v>
       </c>
       <c r="D145">
-        <v>30136</v>
+        <v>30154</v>
       </c>
       <c r="E145">
-        <v>11669</v>
+        <v>11667</v>
       </c>
       <c r="F145">
         <v>142.66247799999999</v>
@@ -10331,16 +10329,16 @@
         <v>40909</v>
       </c>
       <c r="B146">
-        <v>2033972</v>
+        <v>2095748</v>
       </c>
       <c r="C146">
-        <v>1355933</v>
+        <v>1246013</v>
       </c>
       <c r="D146">
-        <v>28748</v>
+        <v>28762</v>
       </c>
       <c r="E146">
-        <v>11654</v>
+        <v>11616</v>
       </c>
       <c r="F146">
         <v>131.62676300000001</v>
@@ -10399,16 +10397,16 @@
         <v>40940</v>
       </c>
       <c r="B147">
-        <v>1894866</v>
+        <v>1949039</v>
       </c>
       <c r="C147">
-        <v>1203018</v>
+        <v>1143538</v>
       </c>
       <c r="D147">
-        <v>26339</v>
+        <v>26369</v>
       </c>
       <c r="E147">
-        <v>10755</v>
+        <v>10750</v>
       </c>
       <c r="F147">
         <v>129.51969</v>
@@ -10467,16 +10465,16 @@
         <v>40969</v>
       </c>
       <c r="B148">
-        <v>2195861</v>
+        <v>2252697</v>
       </c>
       <c r="C148">
-        <v>1441540</v>
+        <v>1297810</v>
       </c>
       <c r="D148">
-        <v>28890</v>
+        <v>28918</v>
       </c>
       <c r="E148">
-        <v>12218</v>
+        <v>12184</v>
       </c>
       <c r="F148">
         <v>138.51133999999999</v>
@@ -10535,16 +10533,16 @@
         <v>41000</v>
       </c>
       <c r="B149">
-        <v>2155597</v>
+        <v>2216278</v>
       </c>
       <c r="C149">
-        <v>1294865</v>
+        <v>1142370</v>
       </c>
       <c r="D149">
-        <v>28235</v>
+        <v>28275</v>
       </c>
       <c r="E149">
-        <v>10941</v>
+        <v>10923</v>
       </c>
       <c r="F149">
         <v>123.972086</v>
@@ -10603,16 +10601,16 @@
         <v>41030</v>
       </c>
       <c r="B150">
-        <v>2224797</v>
+        <v>2285980</v>
       </c>
       <c r="C150">
-        <v>1097840</v>
+        <v>1015515</v>
       </c>
       <c r="D150">
-        <v>30626</v>
+        <v>30608</v>
       </c>
       <c r="E150">
-        <v>9955</v>
+        <v>9954</v>
       </c>
       <c r="F150">
         <v>138.42857699999999</v>
@@ -10671,16 +10669,16 @@
         <v>41061</v>
       </c>
       <c r="B151">
-        <v>2266473</v>
+        <v>2321357</v>
       </c>
       <c r="C151">
-        <v>1109227</v>
+        <v>1122039</v>
       </c>
       <c r="D151">
-        <v>30215</v>
+        <v>30202</v>
       </c>
       <c r="E151">
-        <v>10337</v>
+        <v>10357</v>
       </c>
       <c r="F151">
         <v>126.015688</v>
@@ -10739,16 +10737,16 @@
         <v>41091</v>
       </c>
       <c r="B152">
-        <v>2717175</v>
+        <v>2776749</v>
       </c>
       <c r="C152">
-        <v>1398753</v>
+        <v>1262150</v>
       </c>
       <c r="D152">
-        <v>32715</v>
+        <v>32655</v>
       </c>
       <c r="E152">
-        <v>11265</v>
+        <v>11304</v>
       </c>
       <c r="F152">
         <v>129.28479799999999</v>
@@ -10807,13 +10805,13 @@
         <v>41122</v>
       </c>
       <c r="B153">
-        <v>2489299</v>
+        <v>2557388</v>
       </c>
       <c r="C153">
-        <v>1245899</v>
+        <v>1123780</v>
       </c>
       <c r="D153">
-        <v>32101</v>
+        <v>32090</v>
       </c>
       <c r="E153">
         <v>10616</v>
@@ -10875,16 +10873,16 @@
         <v>41153</v>
       </c>
       <c r="B154">
-        <v>2118777</v>
+        <v>2177960</v>
       </c>
       <c r="C154">
-        <v>936913</v>
+        <v>856388</v>
       </c>
       <c r="D154">
-        <v>29779</v>
+        <v>29792</v>
       </c>
       <c r="E154">
-        <v>8825</v>
+        <v>8827</v>
       </c>
       <c r="F154">
         <v>135.16556199999999</v>
@@ -10943,16 +10941,16 @@
         <v>41183</v>
       </c>
       <c r="B155">
-        <v>2283484</v>
+        <v>2332671</v>
       </c>
       <c r="C155">
-        <v>998368</v>
+        <v>995791</v>
       </c>
       <c r="D155">
-        <v>31100</v>
+        <v>31123</v>
       </c>
       <c r="E155">
-        <v>9451</v>
+        <v>9453</v>
       </c>
       <c r="F155">
         <v>144.72499300000001</v>
@@ -11011,16 +11009,16 @@
         <v>41214</v>
       </c>
       <c r="B156">
-        <v>2311381</v>
+        <v>2370580</v>
       </c>
       <c r="C156">
-        <v>1154245</v>
+        <v>1166406</v>
       </c>
       <c r="D156">
-        <v>30444</v>
+        <v>30445</v>
       </c>
       <c r="E156">
-        <v>10482</v>
+        <v>10486</v>
       </c>
       <c r="F156">
         <v>138.570932</v>
@@ -11079,16 +11077,16 @@
         <v>41244</v>
       </c>
       <c r="B157">
-        <v>2479803</v>
+        <v>2532883</v>
       </c>
       <c r="C157">
-        <v>1346410</v>
+        <v>1443013</v>
       </c>
       <c r="D157">
-        <v>31458</v>
+        <v>31445</v>
       </c>
       <c r="E157">
-        <v>12437</v>
+        <v>12433</v>
       </c>
       <c r="F157">
         <v>133.01486499999999</v>
@@ -11147,16 +11145,16 @@
         <v>41275</v>
       </c>
       <c r="B158">
-        <v>2202815</v>
+        <v>2269711</v>
       </c>
       <c r="C158">
-        <v>1447129</v>
+        <v>1317062</v>
       </c>
       <c r="D158">
-        <v>31109</v>
+        <v>31121</v>
       </c>
       <c r="E158">
-        <v>12350</v>
+        <v>12337</v>
       </c>
       <c r="F158">
         <v>135.84912199999999</v>
@@ -11215,16 +11213,16 @@
         <v>41306</v>
       </c>
       <c r="B159">
-        <v>1940454</v>
+        <v>1997941</v>
       </c>
       <c r="C159">
-        <v>1255296</v>
+        <v>1195226</v>
       </c>
       <c r="D159">
-        <v>26898</v>
+        <v>26892</v>
       </c>
       <c r="E159">
-        <v>11184</v>
+        <v>11182</v>
       </c>
       <c r="F159">
         <v>130.00497999999999</v>
@@ -11283,16 +11281,16 @@
         <v>41334</v>
       </c>
       <c r="B160">
-        <v>2333514</v>
+        <v>2392291</v>
       </c>
       <c r="C160">
-        <v>1611107</v>
+        <v>1440716</v>
       </c>
       <c r="D160">
-        <v>30611</v>
+        <v>30620</v>
       </c>
       <c r="E160">
-        <v>13182</v>
+        <v>13203</v>
       </c>
       <c r="F160">
         <v>133.27120500000001</v>
@@ -11351,16 +11349,16 @@
         <v>41365</v>
       </c>
       <c r="B161">
-        <v>2294655</v>
+        <v>2356402</v>
       </c>
       <c r="C161">
-        <v>1349261</v>
+        <v>1206971</v>
       </c>
       <c r="D161">
-        <v>30515</v>
+        <v>30527</v>
       </c>
       <c r="E161">
-        <v>11469</v>
+        <v>11470</v>
       </c>
       <c r="F161">
         <v>141.224389</v>
@@ -11419,16 +11417,16 @@
         <v>41395</v>
       </c>
       <c r="B162">
-        <v>2411945</v>
+        <v>2476005</v>
       </c>
       <c r="C162">
-        <v>1228038</v>
+        <v>1127879</v>
       </c>
       <c r="D162">
-        <v>31394</v>
+        <v>31397</v>
       </c>
       <c r="E162">
-        <v>10721</v>
+        <v>10705</v>
       </c>
       <c r="F162">
         <v>143.134477</v>
@@ -11487,16 +11485,16 @@
         <v>41426</v>
       </c>
       <c r="B163">
-        <v>2429671</v>
+        <v>2503438</v>
       </c>
       <c r="C163">
-        <v>1263301</v>
+        <v>1241788</v>
       </c>
       <c r="D163">
-        <v>30708</v>
+        <v>30720</v>
       </c>
       <c r="E163">
-        <v>10796</v>
+        <v>10787</v>
       </c>
       <c r="F163">
         <v>135.72993299999999</v>
@@ -11555,16 +11553,16 @@
         <v>41456</v>
       </c>
       <c r="B164">
-        <v>3020521</v>
+        <v>3095722</v>
       </c>
       <c r="C164">
-        <v>1515177</v>
+        <v>1363167</v>
       </c>
       <c r="D164">
-        <v>33910</v>
+        <v>33903</v>
       </c>
       <c r="E164">
-        <v>11790</v>
+        <v>11800</v>
       </c>
       <c r="F164">
         <v>138.57384999999999</v>
@@ -11623,16 +11621,16 @@
         <v>41487</v>
       </c>
       <c r="B165">
-        <v>2764768</v>
+        <v>2839918</v>
       </c>
       <c r="C165">
-        <v>1366832</v>
+        <v>1246097</v>
       </c>
       <c r="D165">
-        <v>33536</v>
+        <v>33552</v>
       </c>
       <c r="E165">
-        <v>11172</v>
+        <v>11184</v>
       </c>
       <c r="F165">
         <v>151.18663900000001</v>
@@ -11691,16 +11689,16 @@
         <v>41518</v>
       </c>
       <c r="B166">
-        <v>2321033</v>
+        <v>2372273</v>
       </c>
       <c r="C166">
-        <v>1011584</v>
+        <v>929531</v>
       </c>
       <c r="D166">
-        <v>30039</v>
+        <v>30368</v>
       </c>
       <c r="E166">
-        <v>9607</v>
+        <v>9281</v>
       </c>
       <c r="F166">
         <v>140.52182199999999</v>
@@ -11759,16 +11757,16 @@
         <v>41548</v>
       </c>
       <c r="B167">
-        <v>2471649</v>
+        <v>2530532</v>
       </c>
       <c r="C167">
-        <v>1091924</v>
+        <v>1088854</v>
       </c>
       <c r="D167">
-        <v>32238</v>
+        <v>32253</v>
       </c>
       <c r="E167">
-        <v>10062</v>
+        <v>10060</v>
       </c>
       <c r="F167">
         <v>154.71810099999999</v>
@@ -11827,16 +11825,16 @@
         <v>41579</v>
       </c>
       <c r="B168">
-        <v>2541679</v>
+        <v>2610185</v>
       </c>
       <c r="C168">
-        <v>1261106</v>
+        <v>1275617</v>
       </c>
       <c r="D168">
-        <v>31304</v>
+        <v>31285</v>
       </c>
       <c r="E168">
-        <v>11150</v>
+        <v>11160</v>
       </c>
       <c r="F168">
         <v>148.355403</v>
@@ -11895,16 +11893,16 @@
         <v>41609</v>
       </c>
       <c r="B169">
-        <v>2743115</v>
+        <v>2805390</v>
       </c>
       <c r="C169">
-        <v>1490181</v>
+        <v>1561225</v>
       </c>
       <c r="D169">
-        <v>32902</v>
+        <v>32861</v>
       </c>
       <c r="E169">
-        <v>12933</v>
+        <v>12940</v>
       </c>
       <c r="F169">
         <v>132.36669699999999</v>
@@ -11963,13 +11961,13 @@
         <v>41640</v>
       </c>
       <c r="B170">
-        <v>2457772</v>
+        <v>2535226</v>
       </c>
       <c r="C170">
-        <v>1629294</v>
+        <v>1487561</v>
       </c>
       <c r="D170">
-        <v>31892</v>
+        <v>31859</v>
       </c>
       <c r="E170">
         <v>13172</v>
@@ -12031,16 +12029,16 @@
         <v>41671</v>
       </c>
       <c r="B171">
-        <v>2115766</v>
+        <v>2179498</v>
       </c>
       <c r="C171">
-        <v>1408064</v>
+        <v>1347245</v>
       </c>
       <c r="D171">
-        <v>28162</v>
+        <v>28166</v>
       </c>
       <c r="E171">
-        <v>11887</v>
+        <v>11886</v>
       </c>
       <c r="F171">
         <v>124.017583</v>
@@ -12099,16 +12097,16 @@
         <v>41699</v>
       </c>
       <c r="B172">
-        <v>2440786</v>
+        <v>2517932</v>
       </c>
       <c r="C172">
-        <v>1715103</v>
+        <v>1554124</v>
       </c>
       <c r="D172">
-        <v>31971</v>
+        <v>31978</v>
       </c>
       <c r="E172">
-        <v>13920</v>
+        <v>13918</v>
       </c>
       <c r="F172">
         <v>133.050287</v>
@@ -12167,16 +12165,16 @@
         <v>41730</v>
       </c>
       <c r="B173">
-        <v>2586883</v>
+        <v>2649883</v>
       </c>
       <c r="C173">
-        <v>1544467</v>
+        <v>1355701</v>
       </c>
       <c r="D173">
-        <v>32661</v>
+        <v>32641</v>
       </c>
       <c r="E173">
-        <v>12519</v>
+        <v>12515</v>
       </c>
       <c r="F173">
         <v>122.020644</v>
@@ -12235,16 +12233,16 @@
         <v>41760</v>
       </c>
       <c r="B174">
-        <v>2698027</v>
+        <v>2772425</v>
       </c>
       <c r="C174">
-        <v>1409122</v>
+        <v>1293539</v>
       </c>
       <c r="D174">
-        <v>34152</v>
+        <v>34165</v>
       </c>
       <c r="E174">
-        <v>11736</v>
+        <v>11746</v>
       </c>
       <c r="F174">
         <v>131.771064</v>
@@ -12303,16 +12301,16 @@
         <v>41791</v>
       </c>
       <c r="B175">
-        <v>2593783</v>
+        <v>2666350</v>
       </c>
       <c r="C175">
-        <v>1403651</v>
+        <v>1394391</v>
       </c>
       <c r="D175">
-        <v>32707</v>
+        <v>32694</v>
       </c>
       <c r="E175">
-        <v>11872</v>
+        <v>11896</v>
       </c>
       <c r="F175">
         <v>124.493065</v>
@@ -12371,16 +12369,16 @@
         <v>41821</v>
       </c>
       <c r="B176">
-        <v>3137210</v>
+        <v>3223306</v>
       </c>
       <c r="C176">
-        <v>1677474</v>
+        <v>1520351</v>
       </c>
       <c r="D176">
-        <v>36991</v>
+        <v>37011</v>
       </c>
       <c r="E176">
-        <v>12722</v>
+        <v>12725</v>
       </c>
       <c r="F176">
         <v>129.026208</v>
@@ -12439,16 +12437,16 @@
         <v>41852</v>
       </c>
       <c r="B177">
-        <v>2952702</v>
+        <v>3046508</v>
       </c>
       <c r="C177">
-        <v>1550687</v>
+        <v>1389069</v>
       </c>
       <c r="D177">
-        <v>36555</v>
+        <v>36571</v>
       </c>
       <c r="E177">
-        <v>11899</v>
+        <v>11920</v>
       </c>
       <c r="F177">
         <v>135.706107</v>
@@ -12507,16 +12505,16 @@
         <v>41883</v>
       </c>
       <c r="B178">
-        <v>2444759</v>
+        <v>2509350</v>
       </c>
       <c r="C178">
-        <v>1077559</v>
+        <v>984140</v>
       </c>
       <c r="D178">
-        <v>32589</v>
+        <v>32594</v>
       </c>
       <c r="E178">
-        <v>9328</v>
+        <v>9342</v>
       </c>
       <c r="F178">
         <v>134.20389299999999</v>
@@ -12575,16 +12573,16 @@
         <v>41913</v>
       </c>
       <c r="B179">
-        <v>2717696</v>
+        <v>2788989</v>
       </c>
       <c r="C179">
-        <v>1142887</v>
+        <v>1140927</v>
       </c>
       <c r="D179">
-        <v>34321</v>
+        <v>34315</v>
       </c>
       <c r="E179">
-        <v>10137</v>
+        <v>10125</v>
       </c>
       <c r="F179">
         <v>139.01282499999999</v>
@@ -12643,16 +12641,16 @@
         <v>41944</v>
       </c>
       <c r="B180">
-        <v>2774035</v>
+        <v>2851184</v>
       </c>
       <c r="C180">
-        <v>1371661</v>
+        <v>1377492</v>
       </c>
       <c r="D180">
-        <v>33435</v>
+        <v>33427</v>
       </c>
       <c r="E180">
-        <v>11915</v>
+        <v>11913</v>
       </c>
       <c r="F180">
         <v>128.63404199999999</v>
@@ -12711,16 +12709,16 @@
         <v>41974</v>
       </c>
       <c r="B181">
-        <v>2947905</v>
+        <v>3025707</v>
       </c>
       <c r="C181">
-        <v>1573322</v>
+        <v>1673231</v>
       </c>
       <c r="D181">
-        <v>35178</v>
+        <v>35189</v>
       </c>
       <c r="E181">
-        <v>13898</v>
+        <v>13915</v>
       </c>
       <c r="F181">
         <v>128.71630999999999</v>
@@ -12779,16 +12777,16 @@
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>2610829</v>
+        <v>2698074</v>
       </c>
       <c r="C182">
-        <v>1770416</v>
+        <v>1617739</v>
       </c>
       <c r="D182">
-        <v>33969</v>
+        <v>33968</v>
       </c>
       <c r="E182">
-        <v>14470</v>
+        <v>14456</v>
       </c>
       <c r="F182">
         <v>129.98945000000001</v>
@@ -12847,16 +12845,16 @@
         <v>42036</v>
       </c>
       <c r="B183">
-        <v>2356291</v>
+        <v>2427248</v>
       </c>
       <c r="C183">
-        <v>1517442</v>
+        <v>1447962</v>
       </c>
       <c r="D183">
-        <v>30151</v>
+        <v>30166</v>
       </c>
       <c r="E183">
-        <v>12672</v>
+        <v>12661</v>
       </c>
       <c r="F183">
         <v>123.07239</v>
@@ -12915,16 +12913,16 @@
         <v>42064</v>
       </c>
       <c r="B184">
-        <v>2859406</v>
+        <v>2945464</v>
       </c>
       <c r="C184">
-        <v>1896117</v>
+        <v>1670659</v>
       </c>
       <c r="D184">
-        <v>34308</v>
+        <v>34330</v>
       </c>
       <c r="E184">
-        <v>14859</v>
+        <v>14806</v>
       </c>
       <c r="F184">
         <v>132.97841700000001</v>
@@ -12983,16 +12981,16 @@
         <v>42095</v>
       </c>
       <c r="B185">
-        <v>2919610</v>
+        <v>2994876</v>
       </c>
       <c r="C185">
-        <v>1693741</v>
+        <v>1545194</v>
       </c>
       <c r="D185">
-        <v>34168</v>
+        <v>34212</v>
       </c>
       <c r="E185">
-        <v>13892</v>
+        <v>13832</v>
       </c>
       <c r="F185">
         <v>124.61799999999999</v>
@@ -13051,16 +13049,16 @@
         <v>42125</v>
       </c>
       <c r="B186">
-        <v>3013076</v>
+        <v>3104233</v>
       </c>
       <c r="C186">
-        <v>1584628</v>
+        <v>1460873</v>
       </c>
       <c r="D186">
-        <v>34596</v>
+        <v>34675</v>
       </c>
       <c r="E186">
-        <v>12931</v>
+        <v>12893</v>
       </c>
       <c r="F186">
         <v>130.97857300000001</v>
@@ -13119,16 +13117,16 @@
         <v>42156</v>
       </c>
       <c r="B187">
-        <v>2971067</v>
+        <v>3055448</v>
       </c>
       <c r="C187">
-        <v>1568741</v>
+        <v>1581264</v>
       </c>
       <c r="D187">
-        <v>33729</v>
+        <v>33759</v>
       </c>
       <c r="E187">
-        <v>13056</v>
+        <v>13035</v>
       </c>
       <c r="F187">
         <v>128.77599799999999</v>
@@ -13187,16 +13185,16 @@
         <v>42186</v>
       </c>
       <c r="B188">
-        <v>3578906</v>
+        <v>3665449</v>
       </c>
       <c r="C188">
-        <v>1886996</v>
+        <v>1726835</v>
       </c>
       <c r="D188">
-        <v>37383</v>
+        <v>37379</v>
       </c>
       <c r="E188">
-        <v>14082</v>
+        <v>14060</v>
       </c>
       <c r="F188">
         <v>128.723454</v>
@@ -13255,16 +13253,16 @@
         <v>42217</v>
       </c>
       <c r="B189">
-        <v>3366196</v>
+        <v>3461197</v>
       </c>
       <c r="C189">
-        <v>1755479</v>
+        <v>1580046</v>
       </c>
       <c r="D189">
-        <v>37162</v>
+        <v>37203</v>
       </c>
       <c r="E189">
-        <v>13247</v>
+        <v>13228</v>
       </c>
       <c r="F189">
         <v>131.253277</v>
@@ -13323,16 +13321,16 @@
         <v>42248</v>
       </c>
       <c r="B190">
-        <v>2813268</v>
+        <v>2884959</v>
       </c>
       <c r="C190">
-        <v>1242551</v>
+        <v>1158352</v>
       </c>
       <c r="D190">
-        <v>33176</v>
+        <v>33442</v>
       </c>
       <c r="E190">
-        <v>10663</v>
+        <v>10650</v>
       </c>
       <c r="F190">
         <v>129.26551000000001</v>
@@ -13391,16 +13389,16 @@
         <v>42278</v>
       </c>
       <c r="B191">
-        <v>3075923</v>
+        <v>3147343</v>
       </c>
       <c r="C191">
-        <v>1354017</v>
+        <v>1373806</v>
       </c>
       <c r="D191">
-        <v>35199</v>
+        <v>35220</v>
       </c>
       <c r="E191">
-        <v>11810</v>
+        <v>11816</v>
       </c>
       <c r="F191">
         <v>140.41619900000001</v>
@@ -13459,16 +13457,16 @@
         <v>42309</v>
       </c>
       <c r="B192">
-        <v>3155055</v>
+        <v>3226202</v>
       </c>
       <c r="C192">
-        <v>1565000</v>
+        <v>1571690</v>
       </c>
       <c r="D192">
-        <v>35282</v>
+        <v>35245</v>
       </c>
       <c r="E192">
-        <v>13349</v>
+        <v>13356</v>
       </c>
       <c r="F192">
         <v>131.738799</v>
@@ -13527,16 +13525,16 @@
         <v>42339</v>
       </c>
       <c r="B193">
-        <v>3347227</v>
+        <v>3405915</v>
       </c>
       <c r="C193">
-        <v>1755268</v>
+        <v>1911694</v>
       </c>
       <c r="D193">
-        <v>37390</v>
+        <v>37419</v>
       </c>
       <c r="E193">
-        <v>15261</v>
+        <v>15283</v>
       </c>
       <c r="F193">
         <v>133.78023300000001</v>
@@ -13595,16 +13593,16 @@
         <v>42370</v>
       </c>
       <c r="B194">
-        <v>2971777</v>
+        <v>3047571</v>
       </c>
       <c r="C194">
-        <v>1954355</v>
+        <v>1795386</v>
       </c>
       <c r="D194">
-        <v>35948</v>
+        <v>35957</v>
       </c>
       <c r="E194">
-        <v>15680</v>
+        <v>15661</v>
       </c>
       <c r="F194">
         <v>128.160629</v>
@@ -13663,16 +13661,16 @@
         <v>42401</v>
       </c>
       <c r="B195">
-        <v>2705818</v>
+        <v>2768785</v>
       </c>
       <c r="C195">
-        <v>1713409</v>
+        <v>1618909</v>
       </c>
       <c r="D195">
-        <v>32520</v>
+        <v>32516</v>
       </c>
       <c r="E195">
-        <v>14296</v>
+        <v>14271</v>
       </c>
       <c r="F195">
         <v>129.67983000000001</v>
@@ -13731,16 +13729,16 @@
         <v>42430</v>
       </c>
       <c r="B196">
-        <v>3283276</v>
+        <v>3357262</v>
       </c>
       <c r="C196">
-        <v>2020898</v>
+        <v>1868012</v>
       </c>
       <c r="D196">
-        <v>37071</v>
+        <v>37050</v>
       </c>
       <c r="E196">
-        <v>16002</v>
+        <v>15984</v>
       </c>
       <c r="F196">
         <v>119.567936</v>
@@ -13799,16 +13797,16 @@
         <v>42461</v>
       </c>
       <c r="B197">
-        <v>3126641</v>
+        <v>3204267</v>
       </c>
       <c r="C197">
-        <v>1782907</v>
+        <v>1602215</v>
       </c>
       <c r="D197">
-        <v>36143</v>
+        <v>36175</v>
       </c>
       <c r="E197">
-        <v>14450</v>
+        <v>14441</v>
       </c>
       <c r="F197">
         <v>137.472566</v>
@@ -13867,16 +13865,16 @@
         <v>42491</v>
       </c>
       <c r="B198">
-        <v>3372090</v>
+        <v>3450491</v>
       </c>
       <c r="C198">
-        <v>1670105</v>
+        <v>1557777</v>
       </c>
       <c r="D198">
-        <v>37450</v>
+        <v>37435</v>
       </c>
       <c r="E198">
-        <v>13546</v>
+        <v>13531</v>
       </c>
       <c r="F198">
         <v>137.13244299999999</v>
@@ -13935,16 +13933,16 @@
         <v>42522</v>
       </c>
       <c r="B199">
-        <v>3376332</v>
+        <v>3458058</v>
       </c>
       <c r="C199">
-        <v>1715145</v>
+        <v>1707884</v>
       </c>
       <c r="D199">
-        <v>36482</v>
+        <v>36485</v>
       </c>
       <c r="E199">
-        <v>13556</v>
+        <v>13540</v>
       </c>
       <c r="F199">
         <v>135.413611</v>
@@ -14003,16 +14001,16 @@
         <v>42552</v>
       </c>
       <c r="B200">
-        <v>4040857</v>
+        <v>4132199</v>
       </c>
       <c r="C200">
-        <v>2044912</v>
+        <v>1893023</v>
       </c>
       <c r="D200">
-        <v>40306</v>
+        <v>40311</v>
       </c>
       <c r="E200">
-        <v>14590</v>
+        <v>14571</v>
       </c>
       <c r="F200">
         <v>127.03495599999999</v>
@@ -14071,16 +14069,16 @@
         <v>42583</v>
       </c>
       <c r="B201">
-        <v>3775768</v>
+        <v>3880466</v>
       </c>
       <c r="C201">
-        <v>1830597</v>
+        <v>1645479</v>
       </c>
       <c r="D201">
-        <v>40622</v>
+        <v>40660</v>
       </c>
       <c r="E201">
-        <v>13576</v>
+        <v>13599</v>
       </c>
       <c r="F201">
         <v>141.80267000000001</v>
@@ -14139,16 +14137,16 @@
         <v>42614</v>
       </c>
       <c r="B202">
-        <v>3262067</v>
+        <v>3335960</v>
       </c>
       <c r="C202">
-        <v>1375614</v>
+        <v>1290924</v>
       </c>
       <c r="D202">
-        <v>36700</v>
+        <v>36705</v>
       </c>
       <c r="E202">
-        <v>11404</v>
+        <v>11400</v>
       </c>
       <c r="F202">
         <v>134.41805299999999</v>
@@ -14207,16 +14205,16 @@
         <v>42644</v>
       </c>
       <c r="B203">
-        <v>3482983</v>
+        <v>3567510</v>
       </c>
       <c r="C203">
-        <v>1515098</v>
+        <v>1519788</v>
       </c>
       <c r="D203">
-        <v>38754</v>
+        <v>38780</v>
       </c>
       <c r="E203">
-        <v>12541</v>
+        <v>12533</v>
       </c>
       <c r="F203">
         <v>142.62321600000001</v>
@@ -14275,16 +14273,16 @@
         <v>42675</v>
       </c>
       <c r="B204">
-        <v>3577995</v>
+        <v>3655289</v>
       </c>
       <c r="C204">
-        <v>1681767</v>
+        <v>1697139</v>
       </c>
       <c r="D204">
-        <v>38524</v>
+        <v>38532</v>
       </c>
       <c r="E204">
-        <v>13683</v>
+        <v>13680</v>
       </c>
       <c r="F204">
         <v>136.58275800000001</v>
@@ -14343,16 +14341,16 @@
         <v>42705</v>
       </c>
       <c r="B205">
-        <v>3861957</v>
+        <v>3944306</v>
       </c>
       <c r="C205">
-        <v>1956193</v>
+        <v>2163108</v>
       </c>
       <c r="D205">
-        <v>40160</v>
+        <v>40172</v>
       </c>
       <c r="E205">
-        <v>16501</v>
+        <v>16507</v>
       </c>
       <c r="F205">
         <v>135.959484</v>
@@ -14411,16 +14409,16 @@
         <v>42736</v>
       </c>
       <c r="B206">
-        <v>3477241</v>
+        <v>3565569</v>
       </c>
       <c r="C206">
-        <v>2186391</v>
+        <v>1983027</v>
       </c>
       <c r="D206">
-        <v>38672</v>
+        <v>38702</v>
       </c>
       <c r="E206">
-        <v>16633</v>
+        <v>16596</v>
       </c>
       <c r="F206">
         <v>130.57445799999999</v>
@@ -14479,16 +14477,16 @@
         <v>42767</v>
       </c>
       <c r="B207">
-        <v>3027561</v>
+        <v>3104550</v>
       </c>
       <c r="C207">
-        <v>1831401</v>
+        <v>1747046</v>
       </c>
       <c r="D207">
-        <v>33089</v>
+        <v>33116</v>
       </c>
       <c r="E207">
-        <v>14632</v>
+        <v>14609</v>
       </c>
       <c r="F207">
         <v>125.620518</v>
@@ -14547,16 +14545,16 @@
         <v>42795</v>
       </c>
       <c r="B208">
-        <v>3505412</v>
+        <v>3587766</v>
       </c>
       <c r="C208">
-        <v>2173889</v>
+        <v>2012396</v>
       </c>
       <c r="D208">
-        <v>36902</v>
+        <v>36876</v>
       </c>
       <c r="E208">
-        <v>16611</v>
+        <v>16597</v>
       </c>
       <c r="F208">
         <v>141.30842699999999</v>
@@ -14615,16 +14613,16 @@
         <v>42826</v>
       </c>
       <c r="B209">
-        <v>3650489</v>
+        <v>3746574</v>
       </c>
       <c r="C209">
-        <v>2128666</v>
+        <v>1886438</v>
       </c>
       <c r="D209">
-        <v>36791</v>
+        <v>36815</v>
       </c>
       <c r="E209">
-        <v>15527</v>
+        <v>15556</v>
       </c>
       <c r="F209">
         <v>123.329628</v>
@@ -14683,16 +14681,16 @@
         <v>42856</v>
       </c>
       <c r="B210">
-        <v>3735603</v>
+        <v>3820221</v>
       </c>
       <c r="C210">
-        <v>1864646</v>
+        <v>1747450</v>
       </c>
       <c r="D210">
-        <v>37478</v>
+        <v>37488</v>
       </c>
       <c r="E210">
-        <v>14347</v>
+        <v>14355</v>
       </c>
       <c r="F210">
         <v>136.39164700000001</v>
@@ -14751,16 +14749,16 @@
         <v>42887</v>
       </c>
       <c r="B211">
-        <v>3753955</v>
+        <v>3847207</v>
       </c>
       <c r="C211">
-        <v>1933158</v>
+        <v>1919605</v>
       </c>
       <c r="D211">
-        <v>36879</v>
+        <v>36872</v>
       </c>
       <c r="E211">
-        <v>14528</v>
+        <v>14506</v>
       </c>
       <c r="F211">
         <v>133.20537400000001</v>
@@ -14819,16 +14817,16 @@
         <v>42917</v>
       </c>
       <c r="B212">
-        <v>4264135</v>
+        <v>4371450</v>
       </c>
       <c r="C212">
-        <v>2301020</v>
+        <v>2124480</v>
       </c>
       <c r="D212">
-        <v>40194</v>
+        <v>40197</v>
       </c>
       <c r="E212">
-        <v>15698</v>
+        <v>15682</v>
       </c>
       <c r="F212">
         <v>129.285245</v>
@@ -14887,16 +14885,16 @@
         <v>42948</v>
       </c>
       <c r="B213">
-        <v>4023689</v>
+        <v>4128071</v>
       </c>
       <c r="C213">
-        <v>2044506</v>
+        <v>1832188</v>
       </c>
       <c r="D213">
-        <v>39823</v>
+        <v>39800</v>
       </c>
       <c r="E213">
-        <v>14298</v>
+        <v>14285</v>
       </c>
       <c r="F213">
         <v>140.396164</v>
@@ -14955,16 +14953,16 @@
         <v>42979</v>
       </c>
       <c r="B214">
-        <v>3325242</v>
+        <v>3410664</v>
       </c>
       <c r="C214">
-        <v>1508207</v>
+        <v>1386569</v>
       </c>
       <c r="D214">
-        <v>35265</v>
+        <v>35285</v>
       </c>
       <c r="E214">
-        <v>12047</v>
+        <v>12073</v>
       </c>
       <c r="F214">
         <v>92.918577999999997</v>
@@ -15023,13 +15021,13 @@
         <v>43009</v>
       </c>
       <c r="B215">
-        <v>3743992</v>
+        <v>3817161</v>
       </c>
       <c r="C215">
-        <v>1592250</v>
+        <v>1614487</v>
       </c>
       <c r="D215">
-        <v>37188</v>
+        <v>37167</v>
       </c>
       <c r="E215">
         <v>13419</v>
@@ -15091,16 +15089,16 @@
         <v>43040</v>
       </c>
       <c r="B216">
-        <v>3791656</v>
+        <v>3877626</v>
       </c>
       <c r="C216">
-        <v>1856540</v>
+        <v>1880979</v>
       </c>
       <c r="D216">
-        <v>37021</v>
+        <v>36999</v>
       </c>
       <c r="E216">
-        <v>15108</v>
+        <v>15120</v>
       </c>
       <c r="F216">
         <v>136.873323</v>
@@ -15159,16 +15157,16 @@
         <v>43070</v>
       </c>
       <c r="B217">
-        <v>3944910</v>
+        <v>4022051</v>
       </c>
       <c r="C217">
-        <v>2135447</v>
+        <v>2359484</v>
       </c>
       <c r="D217">
-        <v>38803</v>
+        <v>38797</v>
       </c>
       <c r="E217">
-        <v>17864</v>
+        <v>17896</v>
       </c>
       <c r="F217">
         <v>131.34845999999999</v>
@@ -15227,16 +15225,16 @@
         <v>43101</v>
       </c>
       <c r="B218">
-        <v>3691125</v>
+        <v>3787034</v>
       </c>
       <c r="C218">
-        <v>2368487</v>
+        <v>2151150</v>
       </c>
       <c r="D218">
-        <v>38147</v>
+        <v>38140</v>
       </c>
       <c r="E218">
-        <v>17682</v>
+        <v>17667</v>
       </c>
       <c r="F218">
         <v>129.101237</v>
@@ -15295,16 +15293,16 @@
         <v>43132</v>
       </c>
       <c r="B219">
-        <v>3338318</v>
+        <v>3423360</v>
       </c>
       <c r="C219">
-        <v>2027670</v>
+        <v>1909735</v>
       </c>
       <c r="D219">
-        <v>33747</v>
+        <v>33749</v>
       </c>
       <c r="E219">
-        <v>15546</v>
+        <v>15538</v>
       </c>
       <c r="F219">
         <v>124.68881500000001</v>
@@ -15363,16 +15361,16 @@
         <v>43160</v>
       </c>
       <c r="B220">
-        <v>3971106</v>
+        <v>4073151</v>
       </c>
       <c r="C220">
-        <v>2467482</v>
+        <v>2260272</v>
       </c>
       <c r="D220">
-        <v>39208</v>
+        <v>39233</v>
       </c>
       <c r="E220">
-        <v>18127</v>
+        <v>18122</v>
       </c>
       <c r="F220">
         <v>131.279527</v>
@@ -15431,16 +15429,16 @@
         <v>43191</v>
       </c>
       <c r="B221">
-        <v>4004449</v>
+        <v>4111024</v>
       </c>
       <c r="C221">
-        <v>2212772</v>
+        <v>1962583</v>
       </c>
       <c r="D221">
-        <v>38524</v>
+        <v>38513</v>
       </c>
       <c r="E221">
-        <v>16258</v>
+        <v>16254</v>
       </c>
       <c r="F221">
         <v>132.842715</v>
@@ -15499,16 +15497,16 @@
         <v>43221</v>
       </c>
       <c r="B222">
-        <v>4057343</v>
+        <v>4161401</v>
       </c>
       <c r="C222">
-        <v>1977400</v>
+        <v>1850920</v>
       </c>
       <c r="D222">
-        <v>39280</v>
+        <v>39248</v>
       </c>
       <c r="E222">
-        <v>15121</v>
+        <v>15129</v>
       </c>
       <c r="F222">
         <v>135.99254500000001</v>
@@ -15567,16 +15565,16 @@
         <v>43252</v>
       </c>
       <c r="B223">
-        <v>4003841</v>
+        <v>4101778</v>
       </c>
       <c r="C223">
-        <v>2038308</v>
+        <v>2043354</v>
       </c>
       <c r="D223">
-        <v>38417</v>
+        <v>38415</v>
       </c>
       <c r="E223">
-        <v>15406</v>
+        <v>15408</v>
       </c>
       <c r="F223">
         <v>130.38341500000001</v>
@@ -15635,16 +15633,16 @@
         <v>43282</v>
       </c>
       <c r="B224">
-        <v>4625916</v>
+        <v>4734368</v>
       </c>
       <c r="C224">
-        <v>2402338</v>
+        <v>2209938</v>
       </c>
       <c r="D224">
-        <v>41755</v>
+        <v>41738</v>
       </c>
       <c r="E224">
-        <v>16282</v>
+        <v>16275</v>
       </c>
       <c r="F224">
         <v>127.92814300000001</v>
@@ -15703,16 +15701,16 @@
         <v>43313</v>
       </c>
       <c r="B225">
-        <v>4332706</v>
+        <v>4443878</v>
       </c>
       <c r="C225">
-        <v>2146659</v>
+        <v>1915518</v>
       </c>
       <c r="D225">
-        <v>41542</v>
+        <v>41512</v>
       </c>
       <c r="E225">
-        <v>15226</v>
+        <v>15225</v>
       </c>
       <c r="F225">
         <v>141.09953200000001</v>
@@ -15771,16 +15769,16 @@
         <v>43344</v>
       </c>
       <c r="B226">
-        <v>3815371</v>
+        <v>3906701</v>
       </c>
       <c r="C226">
-        <v>1608979</v>
+        <v>1473147</v>
       </c>
       <c r="D226">
-        <v>37483</v>
+        <v>37486</v>
       </c>
       <c r="E226">
-        <v>12805</v>
+        <v>12809</v>
       </c>
       <c r="F226">
         <v>132.37379799999999</v>
@@ -15839,16 +15837,16 @@
         <v>43374</v>
       </c>
       <c r="B227">
-        <v>4158418</v>
+        <v>4248031</v>
       </c>
       <c r="C227">
-        <v>1703416</v>
+        <v>1744227</v>
       </c>
       <c r="D227">
-        <v>39099</v>
+        <v>39053</v>
       </c>
       <c r="E227">
-        <v>13646</v>
+        <v>13657</v>
       </c>
       <c r="F227">
         <v>145.26531499999999</v>
@@ -15907,16 +15905,16 @@
         <v>43405</v>
       </c>
       <c r="B228">
-        <v>4192217</v>
+        <v>4290201</v>
       </c>
       <c r="C228">
-        <v>1977746</v>
+        <v>1984960</v>
       </c>
       <c r="D228">
-        <v>38797</v>
+        <v>38730</v>
       </c>
       <c r="E228">
-        <v>15059</v>
+        <v>15084</v>
       </c>
       <c r="F228">
         <v>133.44843900000001</v>
@@ -15975,16 +15973,16 @@
         <v>43435</v>
       </c>
       <c r="B229">
-        <v>4333239</v>
+        <v>4429077</v>
       </c>
       <c r="C229">
-        <v>2177095</v>
+        <v>2396754</v>
       </c>
       <c r="D229">
-        <v>40283</v>
+        <v>40318</v>
       </c>
       <c r="E229">
-        <v>17271</v>
+        <v>17300</v>
       </c>
       <c r="F229">
         <v>127.58054199999999</v>
@@ -16043,16 +16041,16 @@
         <v>43466</v>
       </c>
       <c r="B230">
-        <v>3899722</v>
+        <v>4008757</v>
       </c>
       <c r="C230">
-        <v>2391278</v>
+        <v>2147337</v>
       </c>
       <c r="D230">
-        <v>38962</v>
+        <v>38880</v>
       </c>
       <c r="E230">
-        <v>17128</v>
+        <v>17121</v>
       </c>
       <c r="F230">
         <v>132.314549</v>
@@ -16111,16 +16109,16 @@
         <v>43497</v>
       </c>
       <c r="B231">
-        <v>3501988</v>
+        <v>3596520</v>
       </c>
       <c r="C231">
-        <v>2054807</v>
+        <v>1965484</v>
       </c>
       <c r="D231">
-        <v>34162</v>
+        <v>34169</v>
       </c>
       <c r="E231">
-        <v>15253</v>
+        <v>15250</v>
       </c>
       <c r="F231">
         <v>122.68930899999999</v>
@@ -16179,16 +16177,16 @@
         <v>43525</v>
       </c>
       <c r="B232">
-        <v>4194556</v>
+        <v>4300729</v>
       </c>
       <c r="C232">
-        <v>2515781</v>
+        <v>2306488</v>
       </c>
       <c r="D232">
-        <v>38092</v>
+        <v>38091</v>
       </c>
       <c r="E232">
-        <v>17740</v>
+        <v>17739</v>
       </c>
       <c r="F232">
         <v>134.610871</v>
@@ -16247,16 +16245,16 @@
         <v>43556</v>
       </c>
       <c r="B233">
-        <v>4358160</v>
+        <v>4461696</v>
       </c>
       <c r="C233">
-        <v>2295552</v>
+        <v>2018991</v>
       </c>
       <c r="D233">
-        <v>39459</v>
+        <v>39446</v>
       </c>
       <c r="E233">
-        <v>16076</v>
+        <v>16079</v>
       </c>
       <c r="F233">
         <v>124.673744</v>
@@ -16315,16 +16313,16 @@
         <v>43586</v>
       </c>
       <c r="B234">
-        <v>4608860</v>
+        <v>4710496</v>
       </c>
       <c r="C234">
-        <v>2091288</v>
+        <v>1940547</v>
       </c>
       <c r="D234">
-        <v>40555</v>
+        <v>40522</v>
       </c>
       <c r="E234">
-        <v>14943</v>
+        <v>14950</v>
       </c>
       <c r="F234">
         <v>133.93714</v>
@@ -16383,16 +16381,16 @@
         <v>43617</v>
       </c>
       <c r="B235">
-        <v>4460465</v>
+        <v>4571231</v>
       </c>
       <c r="C235">
-        <v>2139418</v>
+        <v>2104998</v>
       </c>
       <c r="D235">
-        <v>39518</v>
+        <v>39676</v>
       </c>
       <c r="E235">
-        <v>15158</v>
+        <v>15161</v>
       </c>
       <c r="F235">
         <v>128.52592999999999</v>
@@ -16451,16 +16449,16 @@
         <v>43647</v>
       </c>
       <c r="B236">
-        <v>4912053</v>
+        <v>5032301</v>
       </c>
       <c r="C236">
-        <v>2419892</v>
+        <v>2239475</v>
       </c>
       <c r="D236">
-        <v>43123</v>
+        <v>43073</v>
       </c>
       <c r="E236">
-        <v>15990</v>
+        <v>16001</v>
       </c>
       <c r="F236">
         <v>130.57491899999999</v>
@@ -16519,16 +16517,16 @@
         <v>43678</v>
       </c>
       <c r="B237">
-        <v>4666735</v>
+        <v>4792272</v>
       </c>
       <c r="C237">
-        <v>2190429</v>
+        <v>1964414</v>
       </c>
       <c r="D237">
-        <v>42421</v>
+        <v>42447</v>
       </c>
       <c r="E237">
-        <v>15023</v>
+        <v>15037</v>
       </c>
       <c r="F237">
         <v>141.373109</v>
@@ -16587,16 +16585,16 @@
         <v>43709</v>
       </c>
       <c r="B238">
-        <v>4095482</v>
+        <v>4182034</v>
       </c>
       <c r="C238">
-        <v>1659425</v>
+        <v>1519950</v>
       </c>
       <c r="D238">
-        <v>37952</v>
+        <v>37949</v>
       </c>
       <c r="E238">
-        <v>12384</v>
+        <v>12370</v>
       </c>
       <c r="F238">
         <v>131.82794000000001</v>
@@ -16655,16 +16653,16 @@
         <v>43739</v>
       </c>
       <c r="B239">
-        <v>4524142</v>
+        <v>4604610</v>
       </c>
       <c r="C239">
-        <v>1725152</v>
+        <v>1808866</v>
       </c>
       <c r="D239">
-        <v>40547</v>
+        <v>40520</v>
       </c>
       <c r="E239">
-        <v>13385</v>
+        <v>13391</v>
       </c>
       <c r="F239">
         <v>145.70545200000001</v>
@@ -16723,16 +16721,16 @@
         <v>43770</v>
       </c>
       <c r="B240">
-        <v>4481265</v>
+        <v>4575885</v>
       </c>
       <c r="C240">
-        <v>2028821</v>
+        <v>2052747</v>
       </c>
       <c r="D240">
-        <v>39517</v>
+        <v>39539</v>
       </c>
       <c r="E240">
-        <v>14937</v>
+        <v>14954</v>
       </c>
       <c r="F240">
         <v>137.99861799999999</v>
@@ -16791,16 +16789,16 @@
         <v>43800</v>
       </c>
       <c r="B241">
-        <v>4668057</v>
+        <v>4767879</v>
       </c>
       <c r="C241">
-        <v>2301733</v>
+        <v>2476411</v>
       </c>
       <c r="D241">
-        <v>41253</v>
+        <v>41258</v>
       </c>
       <c r="E241">
-        <v>17395</v>
+        <v>17394</v>
       </c>
       <c r="F241">
         <v>130.41969800000001</v>
@@ -16859,16 +16857,16 @@
         <v>43831</v>
       </c>
       <c r="B242">
-        <v>4323235</v>
+        <v>4426662</v>
       </c>
       <c r="C242">
-        <v>2485799</v>
+        <v>2268656</v>
       </c>
       <c r="D242">
-        <v>40865</v>
+        <v>40801</v>
       </c>
       <c r="E242">
-        <v>16948</v>
+        <v>16946</v>
       </c>
       <c r="F242">
         <v>130.70897299999999</v>
@@ -16927,16 +16925,16 @@
         <v>43862</v>
       </c>
       <c r="B243">
-        <v>3996874</v>
+        <v>4097869</v>
       </c>
       <c r="C243">
-        <v>2225672</v>
+        <v>2114094</v>
       </c>
       <c r="D243">
-        <v>36347</v>
+        <v>36443</v>
       </c>
       <c r="E243">
-        <v>15798</v>
+        <v>15741</v>
       </c>
       <c r="F243">
         <v>129.069097</v>
@@ -16995,16 +16993,16 @@
         <v>43891</v>
       </c>
       <c r="B244">
-        <v>3008295</v>
+        <v>3082439</v>
       </c>
       <c r="C244">
-        <v>1637074</v>
+        <v>1189828</v>
       </c>
       <c r="D244">
-        <v>31512</v>
+        <v>31550</v>
       </c>
       <c r="E244">
-        <v>13593</v>
+        <v>13600</v>
       </c>
       <c r="F244">
         <v>107.531899</v>
@@ -17063,16 +17061,16 @@
         <v>43922</v>
       </c>
       <c r="B245">
-        <v>406742</v>
+        <v>411282</v>
       </c>
       <c r="C245">
-        <v>67507</v>
+        <v>46491</v>
       </c>
       <c r="D245">
-        <v>5878</v>
+        <v>5885</v>
       </c>
       <c r="E245">
-        <v>1840</v>
+        <v>1823</v>
       </c>
       <c r="F245">
         <v>41.139457</v>
@@ -17131,16 +17129,16 @@
         <v>43952</v>
       </c>
       <c r="B246">
-        <v>384643</v>
+        <v>386054</v>
       </c>
       <c r="C246">
-        <v>59205</v>
+        <v>56415</v>
       </c>
       <c r="D246">
-        <v>4779</v>
+        <v>4790</v>
       </c>
       <c r="E246">
-        <v>1416</v>
+        <v>1374</v>
       </c>
       <c r="F246">
         <v>35.899768999999999</v>
@@ -17199,16 +17197,16 @@
         <v>43983</v>
       </c>
       <c r="B247">
-        <v>890203</v>
+        <v>897458</v>
       </c>
       <c r="C247">
-        <v>151552</v>
+        <v>166973</v>
       </c>
       <c r="D247">
-        <v>9599</v>
+        <v>9618</v>
       </c>
       <c r="E247">
-        <v>2288</v>
+        <v>2244</v>
       </c>
       <c r="F247">
         <v>44.780954999999999</v>
@@ -17267,16 +17265,16 @@
         <v>44013</v>
       </c>
       <c r="B248">
-        <v>1678137</v>
+        <v>1694668</v>
       </c>
       <c r="C248">
-        <v>389249</v>
+        <v>383869</v>
       </c>
       <c r="D248">
-        <v>17126</v>
+        <v>17104</v>
       </c>
       <c r="E248">
-        <v>4074</v>
+        <v>4060</v>
       </c>
       <c r="F248">
         <v>58.756520999999999</v>
@@ -17335,16 +17333,16 @@
         <v>44044</v>
       </c>
       <c r="B249">
-        <v>2126572</v>
+        <v>2154088</v>
       </c>
       <c r="C249">
-        <v>525920</v>
+        <v>445057</v>
       </c>
       <c r="D249">
-        <v>21294</v>
+        <v>21323</v>
       </c>
       <c r="E249">
-        <v>4828</v>
+        <v>4832</v>
       </c>
       <c r="F249">
         <v>65.016011000000006</v>
@@ -17403,16 +17401,16 @@
         <v>44075</v>
       </c>
       <c r="B250">
-        <v>2328193</v>
+        <v>2354169</v>
       </c>
       <c r="C250">
-        <v>524001</v>
+        <v>493768</v>
       </c>
       <c r="D250">
-        <v>22300</v>
+        <v>22296</v>
       </c>
       <c r="E250">
-        <v>5056</v>
+        <v>5077</v>
       </c>
       <c r="F250">
         <v>66.219211999999999</v>
@@ -17471,16 +17469,16 @@
         <v>44105</v>
       </c>
       <c r="B251">
-        <v>2724198</v>
+        <v>2755603</v>
       </c>
       <c r="C251">
-        <v>697896</v>
+        <v>722259</v>
       </c>
       <c r="D251">
-        <v>24707</v>
+        <v>24716</v>
       </c>
       <c r="E251">
-        <v>6738</v>
+        <v>6748</v>
       </c>
       <c r="F251">
         <v>74.872131999999993</v>
@@ -17539,16 +17537,16 @@
         <v>44136</v>
       </c>
       <c r="B252">
-        <v>2935138</v>
+        <v>2960319</v>
       </c>
       <c r="C252">
-        <v>864033</v>
+        <v>881145</v>
       </c>
       <c r="D252">
-        <v>26206</v>
+        <v>26197</v>
       </c>
       <c r="E252">
-        <v>8609</v>
+        <v>8614</v>
       </c>
       <c r="F252">
         <v>71.089552999999995</v>
@@ -17607,16 +17605,16 @@
         <v>44166</v>
       </c>
       <c r="B253">
-        <v>3152153</v>
+        <v>3190246</v>
       </c>
       <c r="C253">
-        <v>995545</v>
+        <v>1225867</v>
       </c>
       <c r="D253">
-        <v>28115</v>
+        <v>28133</v>
       </c>
       <c r="E253">
-        <v>11280</v>
+        <v>11291</v>
       </c>
       <c r="F253">
         <v>69.140763000000007</v>
@@ -17675,16 +17673,16 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685767</v>
+        <v>2747947</v>
       </c>
       <c r="C254">
-        <v>1185142</v>
+        <v>833950</v>
       </c>
       <c r="D254">
-        <v>26927</v>
+        <v>26930</v>
       </c>
       <c r="E254">
-        <v>11535</v>
+        <v>11514</v>
       </c>
       <c r="F254">
         <v>41.033642</v>
@@ -17743,16 +17741,16 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2214034</v>
+        <v>2250155</v>
       </c>
       <c r="C255">
-        <v>712193</v>
+        <v>642682</v>
       </c>
       <c r="D255">
-        <v>20713</v>
+        <v>20717</v>
       </c>
       <c r="E255">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="F255">
         <v>50.436321</v>
@@ -17811,16 +17809,16 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162379</v>
+        <v>3215499</v>
       </c>
       <c r="C256">
-        <v>1130645</v>
+        <v>1091295</v>
       </c>
       <c r="D256">
-        <v>25986</v>
+        <v>26010</v>
       </c>
       <c r="E256">
-        <v>10579</v>
+        <v>10584</v>
       </c>
       <c r="F256">
         <v>65.449779000000007</v>
@@ -17879,16 +17877,16 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3452944</v>
+        <v>3523462</v>
       </c>
       <c r="C257">
-        <v>1377367</v>
+        <v>1234685</v>
       </c>
       <c r="D257">
-        <v>29364</v>
+        <v>29349</v>
       </c>
       <c r="E257">
-        <v>10723</v>
+        <v>10690</v>
       </c>
       <c r="F257">
         <v>62.577359000000001</v>
@@ -17947,16 +17945,16 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3784266</v>
+        <v>3868612</v>
       </c>
       <c r="C258">
-        <v>1656557</v>
+        <v>1596997</v>
       </c>
       <c r="D258">
-        <v>30061</v>
+        <v>30076</v>
       </c>
       <c r="E258">
-        <v>12198</v>
+        <v>12169</v>
       </c>
       <c r="F258">
         <v>62.689974999999997</v>
@@ -18015,16 +18013,16 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3791459</v>
+        <v>3885189</v>
       </c>
       <c r="C259">
-        <v>1844126</v>
+        <v>1783107</v>
       </c>
       <c r="D259">
-        <v>30046</v>
+        <v>30069</v>
       </c>
       <c r="E259">
-        <v>13025</v>
+        <v>13040</v>
       </c>
       <c r="F259">
         <v>63.410818999999996</v>
@@ -18083,16 +18081,16 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4352913</v>
+        <v>4446637</v>
       </c>
       <c r="C260">
-        <v>2117022</v>
+        <v>1970731</v>
       </c>
       <c r="D260">
-        <v>34413</v>
+        <v>34437</v>
       </c>
       <c r="E260">
-        <v>14272</v>
+        <v>14275</v>
       </c>
       <c r="F260">
         <v>69.822068999999999</v>
@@ -18151,16 +18149,16 @@
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>3961404</v>
+        <v>4061957</v>
       </c>
       <c r="C261">
-        <v>1954690</v>
+        <v>1628732</v>
       </c>
       <c r="D261">
-        <v>34311</v>
+        <v>34324</v>
       </c>
       <c r="E261">
-        <v>13766</v>
+        <v>13767</v>
       </c>
       <c r="F261">
         <v>67.964499000000004</v>
@@ -18219,16 +18217,16 @@
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>3577845</v>
+        <v>3653971</v>
       </c>
       <c r="C262">
-        <v>1483917</v>
+        <v>1392808</v>
       </c>
       <c r="D262">
-        <v>30181</v>
+        <v>30171</v>
       </c>
       <c r="E262">
-        <v>12193</v>
+        <v>12192</v>
       </c>
       <c r="F262">
         <v>70.154246999999998</v>
@@ -18287,16 +18285,16 @@
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>4118307</v>
+        <v>4204904</v>
       </c>
       <c r="C263">
-        <v>1719971</v>
+        <v>1731069</v>
       </c>
       <c r="D263">
-        <v>33003</v>
+        <v>32974</v>
       </c>
       <c r="E263">
-        <v>13231</v>
+        <v>13269</v>
       </c>
       <c r="F263">
         <v>78.122951999999998</v>
@@ -18355,16 +18353,16 @@
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>4313721</v>
+        <v>4395259</v>
       </c>
       <c r="C264">
-        <v>1924449</v>
+        <v>1973833</v>
       </c>
       <c r="D264">
-        <v>33312</v>
+        <v>33291</v>
       </c>
       <c r="E264">
-        <v>14565</v>
+        <v>14603</v>
       </c>
       <c r="F264">
         <v>78.483883000000006</v>
@@ -18423,16 +18421,16 @@
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>4681213</v>
+        <v>4768202</v>
       </c>
       <c r="C265">
-        <v>2034286</v>
+        <v>2386847</v>
       </c>
       <c r="D265">
-        <v>36208</v>
+        <v>36234</v>
       </c>
       <c r="E265">
-        <v>17016</v>
+        <v>17048</v>
       </c>
       <c r="F265">
         <v>84.154004</v>
@@ -18491,16 +18489,16 @@
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>3767905</v>
+        <v>3854676</v>
       </c>
       <c r="C266">
-        <v>2094697</v>
+        <v>1839209</v>
       </c>
       <c r="D266">
-        <v>33218</v>
+        <v>33193</v>
       </c>
       <c r="E266">
-        <v>16683</v>
+        <v>16690</v>
       </c>
       <c r="F266">
         <v>70.563670000000002</v>
@@ -18559,16 +18557,16 @@
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>3535885</v>
+        <v>3612447</v>
       </c>
       <c r="C267">
-        <v>1838837</v>
+        <v>1820772</v>
       </c>
       <c r="D267">
-        <v>28554</v>
+        <v>28461</v>
       </c>
       <c r="E267">
-        <v>14490</v>
+        <v>14526</v>
       </c>
       <c r="F267">
         <v>72.052554999999998</v>
@@ -18627,16 +18625,16 @@
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>4438186</v>
+        <v>4549465</v>
       </c>
       <c r="C268">
-        <v>2440988</v>
+        <v>2310789</v>
       </c>
       <c r="D268">
-        <v>33627</v>
+        <v>33596</v>
       </c>
       <c r="E268">
-        <v>17035</v>
+        <v>17062</v>
       </c>
       <c r="F268">
         <v>88.358373999999998</v>
@@ -18695,16 +18693,16 @@
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>4701734</v>
+        <v>4778420</v>
       </c>
       <c r="C269">
-        <v>2325751</v>
+        <v>2136321</v>
       </c>
       <c r="D269">
-        <v>35456</v>
+        <v>35439</v>
       </c>
       <c r="E269">
-        <v>15966</v>
+        <v>15984</v>
       </c>
       <c r="F269">
         <v>82.897273999999996</v>
@@ -18763,16 +18761,16 @@
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>4424819</v>
+        <v>4908699</v>
       </c>
       <c r="C270">
-        <v>2039602</v>
+        <v>2076840</v>
       </c>
       <c r="D270">
-        <v>35723</v>
+        <v>35713</v>
       </c>
       <c r="E270">
-        <v>15245</v>
+        <v>15280</v>
       </c>
       <c r="F270">
         <v>91.245641000000006</v>
@@ -18831,16 +18829,16 @@
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>4224210</v>
+        <v>4701641</v>
       </c>
       <c r="C271">
-        <v>2079785</v>
+        <v>2243517</v>
       </c>
       <c r="D271">
-        <v>35197</v>
+        <v>35136</v>
       </c>
       <c r="E271">
-        <v>15389</v>
+        <v>15424</v>
       </c>
       <c r="F271">
         <v>88.424030000000002</v>
@@ -18899,16 +18897,16 @@
         <v>44743</v>
       </c>
       <c r="B272">
-        <v>5262601</v>
+        <v>5372852</v>
       </c>
       <c r="C272">
-        <v>2549172</v>
+        <v>2430787</v>
       </c>
       <c r="D272">
-        <v>39448</v>
+        <v>39412</v>
       </c>
       <c r="E272">
-        <v>16422</v>
+        <v>16281</v>
       </c>
       <c r="F272">
         <v>80.680661999999998</v>
@@ -18967,16 +18965,16 @@
         <v>44774</v>
       </c>
       <c r="B273">
-        <v>5148560</v>
+        <v>5261481</v>
       </c>
       <c r="C273">
-        <v>2372056</v>
+        <v>2110618</v>
       </c>
       <c r="D273">
-        <v>39134</v>
+        <v>39083</v>
       </c>
       <c r="E273">
-        <v>15466</v>
+        <v>15507</v>
       </c>
       <c r="F273">
         <v>90.184646999999998</v>
@@ -19035,16 +19033,16 @@
         <v>44805</v>
       </c>
       <c r="B274">
-        <v>4618052</v>
+        <v>4704494</v>
       </c>
       <c r="C274">
-        <v>1854600</v>
+        <v>1797014</v>
       </c>
       <c r="D274">
-        <v>35597</v>
+        <v>35544</v>
       </c>
       <c r="E274">
-        <v>13049</v>
+        <v>13085</v>
       </c>
       <c r="F274">
         <v>88.794501999999994</v>
@@ -19103,16 +19101,16 @@
         <v>44835</v>
       </c>
       <c r="B275">
-        <v>5062571</v>
+        <v>5162631</v>
       </c>
       <c r="C275">
-        <v>1996217</v>
+        <v>2089547</v>
       </c>
       <c r="D275">
-        <v>37793</v>
+        <v>37767</v>
       </c>
       <c r="E275">
-        <v>13883</v>
+        <v>13887</v>
       </c>
       <c r="F275">
         <v>95.094480000000004</v>
@@ -19171,16 +19169,16 @@
         <v>44866</v>
       </c>
       <c r="B276">
-        <v>5085319</v>
+        <v>5183061</v>
       </c>
       <c r="C276">
-        <v>2271709</v>
+        <v>2316023</v>
       </c>
       <c r="D276">
-        <v>37482</v>
+        <v>37393</v>
       </c>
       <c r="E276">
-        <v>15727</v>
+        <v>15736</v>
       </c>
       <c r="F276">
         <v>91.831197000000003</v>
@@ -19239,16 +19237,16 @@
         <v>44896</v>
       </c>
       <c r="B277">
-        <v>5359335</v>
+        <v>5456045</v>
       </c>
       <c r="C277">
-        <v>2417631</v>
+        <v>2709516</v>
       </c>
       <c r="D277">
-        <v>39660</v>
+        <v>39644</v>
       </c>
       <c r="E277">
-        <v>17768</v>
+        <v>17827</v>
       </c>
       <c r="F277">
         <v>89.981292999999994</v>
@@ -19307,16 +19305,16 @@
         <v>44927</v>
       </c>
       <c r="B278">
-        <v>4947266</v>
+        <v>5058367</v>
       </c>
       <c r="C278">
-        <v>2727461</v>
+        <v>2533314</v>
       </c>
       <c r="D278">
-        <v>38218</v>
+        <v>38226</v>
       </c>
       <c r="E278">
-        <v>17759</v>
+        <v>17747</v>
       </c>
       <c r="F278">
         <v>87.266174000000007</v>
@@ -19375,16 +19373,16 @@
         <v>44958</v>
       </c>
       <c r="B279">
-        <v>4417727</v>
+        <v>4515723</v>
       </c>
       <c r="C279">
-        <v>2376010</v>
+        <v>2277995</v>
       </c>
       <c r="D279">
-        <v>33574</v>
+        <v>33571</v>
       </c>
       <c r="E279">
-        <v>15755</v>
+        <v>15756</v>
       </c>
       <c r="F279">
         <v>86.696037000000004</v>
@@ -19443,16 +19441,16 @@
         <v>44986</v>
       </c>
       <c r="B280">
-        <v>5180113</v>
+        <v>5287795</v>
       </c>
       <c r="C280">
-        <v>2779224</v>
+        <v>2555185</v>
       </c>
       <c r="D280">
-        <v>37541</v>
+        <v>37189</v>
       </c>
       <c r="E280">
-        <v>17742</v>
+        <v>17796</v>
       </c>
       <c r="F280">
         <v>99.399033000000003</v>
@@ -19511,16 +19509,16 @@
         <v>45017</v>
       </c>
       <c r="B281">
-        <v>5324221</v>
+        <v>5428411</v>
       </c>
       <c r="C281">
-        <v>2552374</v>
+        <v>2302473</v>
       </c>
       <c r="D281">
-        <v>37473</v>
+        <v>37442</v>
       </c>
       <c r="E281">
-        <v>16317</v>
+        <v>16324</v>
       </c>
       <c r="F281">
         <v>86.639757000000003</v>
@@ -19579,16 +19577,16 @@
         <v>45047</v>
       </c>
       <c r="B282">
-        <v>5245493</v>
+        <v>5351191</v>
       </c>
       <c r="C282">
-        <v>2285353</v>
+        <v>2161952</v>
       </c>
       <c r="D282">
-        <v>37871</v>
+        <v>37841</v>
       </c>
       <c r="E282">
-        <v>15492</v>
+        <v>15519</v>
       </c>
       <c r="F282">
         <v>96.485574999999997</v>
@@ -19647,16 +19645,16 @@
         <v>45078</v>
       </c>
       <c r="B283">
-        <v>5206599</v>
+        <v>5316081</v>
       </c>
       <c r="C283">
-        <v>2337458</v>
+        <v>2338856</v>
       </c>
       <c r="D283">
-        <v>37605</v>
+        <v>37545</v>
       </c>
       <c r="E283">
-        <v>15661</v>
+        <v>15672</v>
       </c>
       <c r="F283">
         <v>92.973425000000006</v>
@@ -19715,16 +19713,16 @@
         <v>45108</v>
       </c>
       <c r="B284">
-        <v>5931271</v>
+        <v>6058747</v>
       </c>
       <c r="C284">
-        <v>2740945</v>
+        <v>2537631</v>
       </c>
       <c r="D284">
-        <v>40760</v>
+        <v>40713</v>
       </c>
       <c r="E284">
-        <v>16852</v>
+        <v>16881</v>
       </c>
       <c r="F284">
         <v>90.692403999999996</v>
@@ -19783,16 +19781,16 @@
         <v>45139</v>
       </c>
       <c r="B285">
-        <v>5957266</v>
+        <v>6071675</v>
       </c>
       <c r="C285">
-        <v>2447602</v>
+        <v>2227620</v>
       </c>
       <c r="D285">
-        <v>40938</v>
+        <v>40913</v>
       </c>
       <c r="E285">
-        <v>15854</v>
+        <v>15880</v>
       </c>
       <c r="F285">
         <v>97.667491999999996</v>
@@ -19851,16 +19849,16 @@
         <v>45170</v>
       </c>
       <c r="B286">
-        <v>5046561</v>
+        <v>5143082</v>
       </c>
       <c r="C286">
-        <v>1917634</v>
+        <v>1827250</v>
       </c>
       <c r="D286">
-        <v>36229</v>
+        <v>36245</v>
       </c>
       <c r="E286">
-        <v>13192</v>
+        <v>13202</v>
       </c>
       <c r="F286">
         <v>95.458911000000001</v>
@@ -19919,16 +19917,16 @@
         <v>45200</v>
       </c>
       <c r="B287">
-        <v>5397795</v>
+        <v>5485221</v>
       </c>
       <c r="C287">
-        <v>2074694</v>
+        <v>2190293</v>
       </c>
       <c r="D287">
-        <v>37486</v>
+        <v>37464</v>
       </c>
       <c r="E287">
-        <v>14370</v>
+        <v>14388</v>
       </c>
       <c r="F287">
         <v>97.568899999999999</v>
@@ -19987,16 +19985,16 @@
         <v>45231</v>
       </c>
       <c r="B288">
-        <v>5250222</v>
+        <v>5327031</v>
       </c>
       <c r="C288">
-        <v>2390581</v>
+        <v>2434120</v>
       </c>
       <c r="D288">
-        <v>36487</v>
+        <v>36434</v>
       </c>
       <c r="E288">
-        <v>16147</v>
+        <v>16163</v>
       </c>
       <c r="F288">
         <v>93.718683999999996</v>
@@ -20055,16 +20053,16 @@
         <v>45261</v>
       </c>
       <c r="B289">
-        <v>5379789</v>
+        <v>5472429</v>
       </c>
       <c r="C289">
-        <v>2715016</v>
+        <v>3009515</v>
       </c>
       <c r="D289">
-        <v>37638</v>
+        <v>37688</v>
       </c>
       <c r="E289">
-        <v>19700</v>
+        <v>19668</v>
       </c>
       <c r="F289">
         <v>90.620349000000004</v>
@@ -20123,16 +20121,16 @@
         <v>45292</v>
       </c>
       <c r="B290">
-        <v>4640553</v>
+        <v>4750992</v>
       </c>
       <c r="C290">
-        <v>2977074</v>
+        <v>2709727</v>
       </c>
       <c r="D290">
-        <v>32842</v>
+        <v>32833</v>
       </c>
       <c r="E290">
-        <v>19164</v>
+        <v>19147</v>
       </c>
       <c r="F290">
         <v>88.383837999999997</v>
@@ -20191,16 +20189,16 @@
         <v>45323</v>
       </c>
       <c r="B291">
-        <v>4229370</v>
+        <v>4322342</v>
       </c>
       <c r="C291">
-        <v>2679200</v>
+        <v>2565792</v>
       </c>
       <c r="D291">
-        <v>29957</v>
+        <v>29949</v>
       </c>
       <c r="E291">
-        <v>17861</v>
+        <v>17864</v>
       </c>
       <c r="F291">
         <v>92.368690999999998</v>
@@ -20259,16 +20257,16 @@
         <v>45352</v>
       </c>
       <c r="B292">
-        <v>4691197</v>
+        <v>4790485</v>
       </c>
       <c r="C292">
-        <v>3128463</v>
+        <v>2858810</v>
       </c>
       <c r="D292">
-        <v>32465</v>
+        <v>32478</v>
       </c>
       <c r="E292">
-        <v>19843</v>
+        <v>19782</v>
       </c>
       <c r="F292">
         <v>90.667167000000006</v>
@@ -20327,16 +20325,16 @@
         <v>45383</v>
       </c>
       <c r="B293">
-        <v>4819596</v>
+        <v>4923234</v>
       </c>
       <c r="C293">
-        <v>2633949</v>
+        <v>2358433</v>
       </c>
       <c r="D293">
-        <v>34774</v>
+        <v>34798</v>
       </c>
       <c r="E293">
-        <v>17137</v>
+        <v>17098</v>
       </c>
       <c r="F293">
         <v>96.878736000000004</v>
@@ -20395,16 +20393,16 @@
         <v>45413</v>
       </c>
       <c r="B294">
-        <v>5066232</v>
+        <v>5166797</v>
       </c>
       <c r="C294">
-        <v>2370225</v>
+        <v>2267937</v>
       </c>
       <c r="D294">
-        <v>36232</v>
+        <v>36265</v>
       </c>
       <c r="E294">
-        <v>15768</v>
+        <v>15697</v>
       </c>
       <c r="F294">
         <v>101.016462</v>
@@ -20463,16 +20461,16 @@
         <v>45444</v>
       </c>
       <c r="B295">
-        <v>4955045</v>
+        <v>5056718</v>
       </c>
       <c r="C295">
-        <v>2418449</v>
+        <v>2394716</v>
       </c>
       <c r="D295">
-        <v>35407</v>
+        <v>35445</v>
       </c>
       <c r="E295">
-        <v>15963</v>
+        <v>15895</v>
       </c>
       <c r="F295">
         <v>82.302486999999999</v>
@@ -20525,6 +20523,894 @@
       <c r="V295">
         <v>0</v>
       </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B296">
+        <v>5555790</v>
+      </c>
+      <c r="C296">
+        <v>2499499</v>
+      </c>
+      <c r="D296">
+        <v>37146</v>
+      </c>
+      <c r="E296">
+        <v>16537</v>
+      </c>
+      <c r="F296">
+        <v>95.493323000000004</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>1</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B297">
+        <v>5453910</v>
+      </c>
+      <c r="C297">
+        <v>2197916</v>
+      </c>
+      <c r="D297">
+        <v>37150</v>
+      </c>
+      <c r="E297">
+        <v>15189</v>
+      </c>
+      <c r="F297">
+        <v>100.871754</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <v>0</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B298">
+        <v>4806392</v>
+      </c>
+      <c r="C298">
+        <v>1790672</v>
+      </c>
+      <c r="D298">
+        <v>33501</v>
+      </c>
+      <c r="E298">
+        <v>16390</v>
+      </c>
+      <c r="F298">
+        <v>99.794983000000002</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B299">
+        <v>5062115</v>
+      </c>
+      <c r="C299">
+        <v>2209129</v>
+      </c>
+      <c r="D299">
+        <v>34972</v>
+      </c>
+      <c r="E299">
+        <v>14541</v>
+      </c>
+      <c r="F299">
+        <v>109.754842</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
+      <c r="V299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B300">
+        <v>5110702</v>
+      </c>
+      <c r="C300">
+        <v>2511002</v>
+      </c>
+      <c r="D300">
+        <v>34877</v>
+      </c>
+      <c r="E300">
+        <v>16937</v>
+      </c>
+      <c r="F300">
+        <v>103.368953</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0</v>
+      </c>
+      <c r="U300">
+        <v>0</v>
+      </c>
+      <c r="V300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B301">
+        <v>5328304</v>
+      </c>
+      <c r="C301">
+        <v>3060539</v>
+      </c>
+      <c r="D301">
+        <v>36405</v>
+      </c>
+      <c r="E301">
+        <v>19564</v>
+      </c>
+      <c r="F301">
+        <v>99.002046000000007</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>1</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B302">
+        <v>4945636</v>
+      </c>
+      <c r="C302">
+        <v>2520804</v>
+      </c>
+      <c r="D302">
+        <v>35349</v>
+      </c>
+      <c r="E302">
+        <v>19081</v>
+      </c>
+      <c r="F302">
+        <v>96.554068999999998</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>1</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302">
+        <v>1</v>
+      </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B303">
+        <v>4370469</v>
+      </c>
+      <c r="C303">
+        <v>2414260</v>
+      </c>
+      <c r="D303">
+        <v>31316</v>
+      </c>
+      <c r="E303">
+        <v>17136</v>
+      </c>
+      <c r="F303">
+        <v>94.273723000000004</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>1</v>
+      </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>0</v>
+      </c>
+      <c r="V303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B304">
+        <v>5099762</v>
+      </c>
+      <c r="C304">
+        <v>2784001</v>
+      </c>
+      <c r="D304">
+        <v>35266</v>
+      </c>
+      <c r="E304">
+        <v>20198</v>
+      </c>
+      <c r="F304">
+        <v>104.863384</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0</v>
+      </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>0</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B305">
+        <v>5311786</v>
+      </c>
+      <c r="C305">
+        <v>2415110</v>
+      </c>
+      <c r="D305">
+        <v>36558</v>
+      </c>
+      <c r="E305">
+        <v>18077</v>
+      </c>
+      <c r="F305">
+        <v>97.589917999999997</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>0</v>
+      </c>
+      <c r="S305">
+        <v>0</v>
+      </c>
+      <c r="T305">
+        <v>0</v>
+      </c>
+      <c r="U305">
+        <v>0</v>
+      </c>
+      <c r="V305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B306">
+        <v>5212654</v>
+      </c>
+      <c r="C306">
+        <v>2222848</v>
+      </c>
+      <c r="D306">
+        <v>36531</v>
+      </c>
+      <c r="E306">
+        <v>16127</v>
+      </c>
+      <c r="F306">
+        <v>104.309186</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>0</v>
+      </c>
+      <c r="S306">
+        <v>0</v>
+      </c>
+      <c r="T306">
+        <v>0</v>
+      </c>
+      <c r="U306">
+        <v>0</v>
+      </c>
+      <c r="V306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B307">
+        <v>5025360</v>
+      </c>
+      <c r="C307">
+        <v>2396012</v>
+      </c>
+      <c r="D307">
+        <v>35141</v>
+      </c>
+      <c r="E307">
+        <v>16367</v>
+      </c>
+      <c r="F307">
+        <v>100.15273000000001</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <v>0</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307">
+        <v>0</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
